--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>86.5000</t>
+  </si>
+  <si>
+    <t>L.C PLUS ORAL DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
   </si>
   <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
@@ -2614,7 +2620,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2624,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2640,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2657,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2680,7 +2686,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2706,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2746,7 +2752,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2756,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2772,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2789,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2838,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2878,7 +2884,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2892,10 +2898,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2904,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2921,11 +2927,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2937,7 +2943,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2954,7 +2960,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2977,7 +2983,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,11 +2993,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3003,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3020,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3043,7 +3049,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,11 +3059,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3069,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3168,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3201,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3284,11 +3290,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3317,11 +3323,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3333,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,11 +3356,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3366,7 +3372,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3383,11 +3389,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3399,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3416,14 +3422,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3465,31 +3471,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3515,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3531,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3548,14 +3554,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3581,11 +3587,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3604,7 +3610,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3618,7 +3624,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3647,14 +3653,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3680,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3713,11 +3719,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3736,7 +3742,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3746,11 +3752,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3779,14 +3785,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3795,14 +3801,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3812,14 +3818,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3828,14 +3834,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3845,49 +3851,82 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>236</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>237</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>113</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>39</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3794.9850000000001</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>236</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>237</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3914.9850000000001</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>238</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>239</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>240</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4276,10 +4315,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 8:22 PM</t>
+    <t>Wednesday, 9 July, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -359,6 +359,18 @@
     <t>475.2000</t>
   </si>
   <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>10.0800</t>
+  </si>
+  <si>
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
@@ -518,6 +530,15 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>39.50</t>
+  </si>
+  <si>
+    <t>39.5000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -725,7 +746,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 8:28 PM</t>
+    <t>Wednesday, 9 July, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2356,7 +2377,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,11 +2387,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2420,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2439,7 +2460,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2455,7 +2476,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,11 +2486,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,11 +2552,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,11 +2585,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2580,7 +2601,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2597,11 +2618,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2651,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2684,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2700,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,14 +2882,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2931,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2948,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,14 +2964,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,11 +2981,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2976,7 +2997,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2993,11 +3014,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,11 +3047,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3042,14 +3063,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3080,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,7 +3096,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3146,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,11 +3179,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3181,7 +3202,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3231,7 +3252,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3247,7 +3268,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3278,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3280,7 +3301,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3313,7 +3334,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3327,10 +3348,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,11 +3377,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3410,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,11 +3443,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3492,10 +3513,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,20 +3525,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3528,7 +3549,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3544,21 +3565,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3587,11 +3608,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3603,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,11 +3674,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3669,14 +3690,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3707,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,7 +3723,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3719,11 +3740,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3735,14 +3756,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,11 +3806,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3801,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,14 +3839,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,11 +3872,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3867,14 +3888,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,49 +3905,115 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>242</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>38</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>113</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>220</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>243</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>244</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>113</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>39</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3914.9850000000001</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>238</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>239</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>240</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>3964.5650000000001</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>245</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>246</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>247</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4320,10 +4407,20 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -488,6 +488,9 @@
     <t>171.0000</t>
   </si>
   <si>
+    <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
     <t>MOODAPEX 50MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -569,6 +572,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t xml:space="preserve">SAPERO  30TAB</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -746,7 +758,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 8:48 PM</t>
+    <t>Wednesday, 9 July, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2915,11 +2927,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2938,7 +2950,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +2993,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,11 +3026,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3030,7 +3042,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3047,11 +3059,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,11 +3092,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,11 +3125,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,11 +3191,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3202,7 +3214,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,11 +3290,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3294,7 +3306,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3307,15 +3319,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,11 +3389,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3393,14 +3405,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3422,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,11 +3455,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,11 +3488,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3499,7 +3511,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,11 +3521,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,31 +3603,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3624,28 +3636,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,11 +3686,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3740,11 +3752,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3763,7 +3775,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,7 +3822,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3822,14 +3834,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,14 +3851,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3872,11 +3884,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3905,14 +3917,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3938,11 +3950,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3961,7 +3973,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3971,49 +3983,115 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>246</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>38</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>113</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>224</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>247</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>248</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>113</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>39</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q85" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>3964.5650000000001</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>245</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>246</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>247</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4152.5649999999996</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>249</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>250</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>251</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4417,10 +4495,20 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -284,6 +284,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CORTILON 0.1 MG 20 TAB</t>
   </si>
   <si>
@@ -551,6 +560,15 @@
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -581,18 +599,21 @@
     <t>170.0000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SUPRAX 400MG 5 TAB</t>
   </si>
   <si>
@@ -758,7 +779,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 8:51 PM</t>
+    <t>Wednesday, 9 July, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2092,7 +2113,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2125,7 +2146,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2135,11 +2156,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2224,7 +2245,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2257,7 +2278,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2290,7 +2311,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2307,7 +2328,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2333,14 +2354,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,31 +2370,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2382,31 +2403,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2455,7 +2476,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2472,7 +2493,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2488,7 +2509,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,11 +2552,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2585,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2587,7 +2608,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2620,7 +2641,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2686,7 +2707,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2752,7 +2773,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2818,7 +2839,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,14 +2915,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2917,7 +2938,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,14 +2948,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2943,7 +2964,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2960,11 +2981,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,14 +3047,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3049,7 +3070,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3092,11 +3113,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,7 +3146,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3148,7 +3169,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3181,7 +3202,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,11 +3245,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,14 +3278,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3280,7 +3301,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,11 +3311,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3306,28 +3327,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3372,7 +3393,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3385,15 +3406,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3405,7 +3426,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>200</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,7 +3492,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3488,11 +3509,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3554,11 +3575,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3587,11 +3608,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3610,7 +3631,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3620,14 +3641,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3636,14 +3657,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3653,14 +3674,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,28 +3690,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3702,31 +3723,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3735,31 +3756,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3768,28 +3789,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3801,31 +3822,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3841,24 +3862,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3867,28 +3888,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3907,21 +3928,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3940,24 +3961,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3966,7 +3987,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3979,18 +4000,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3999,28 +4020,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4039,59 +4060,158 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>64</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>116</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>251</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>253</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>38</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>116</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>231</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>254</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>255</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>116</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>39</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4152.5649999999996</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>249</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>250</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>251</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4256.625</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>256</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>257</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>258</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4505,10 +4625,25 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -779,7 +779,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 8:56 PM</t>
+    <t>Wednesday, 9 July, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -500,6 +500,9 @@
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
   </si>
   <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
     <t>MOODAPEX 50MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -518,6 +521,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
@@ -779,7 +791,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 8:58 PM</t>
+    <t>Wednesday, 9 July, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3004,7 +3016,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3037,7 +3049,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,11 +3125,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,11 +3158,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,11 +3191,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3195,7 +3207,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3212,11 +3224,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3261,7 +3273,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,11 +3323,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3334,7 +3346,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,11 +3389,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3393,28 +3405,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,14 +3455,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,31 +3471,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,14 +3521,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>207</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,11 +3587,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,14 +3620,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,11 +3653,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,11 +3686,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3697,7 +3709,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3707,11 +3719,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3740,14 +3752,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,31 +3801,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3822,28 +3834,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3872,11 +3884,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3905,14 +3917,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3938,11 +3950,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3961,7 +3973,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3971,14 +3983,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,7 +4020,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4020,14 +4032,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,14 +4049,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,14 +4065,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4070,11 +4082,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4086,14 +4098,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4103,14 +4115,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4119,14 +4131,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4136,11 +4148,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4159,7 +4171,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4169,49 +4181,115 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>257</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>38</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>116</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>235</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>258</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>259</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>116</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>39</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4256.625</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>256</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>257</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>258</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4430.625</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>260</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>261</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>262</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4640,10 +4718,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -521,15 +521,6 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
@@ -791,7 +782,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 8:59 PM</t>
+    <t>Wednesday, 9 July, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3148,7 +3139,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3191,11 +3182,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3207,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,7 +3215,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3247,7 +3238,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3280,7 +3271,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,14 +3281,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3306,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3323,11 +3314,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3339,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3356,11 +3347,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3379,7 +3370,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3396,7 +3387,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3412,7 +3403,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3438,20 +3429,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3462,7 +3453,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3478,13 +3469,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3495,7 +3486,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3511,7 +3502,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3537,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3577,7 +3568,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3594,7 +3585,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3603,14 +3594,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3643,7 +3634,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3657,7 +3648,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3669,7 +3660,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3686,11 +3677,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3702,14 +3693,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3719,11 +3710,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3775,7 +3766,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3792,7 +3783,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3808,7 +3799,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,14 +3809,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3847,7 +3838,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3855,10 +3846,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3867,14 +3858,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3891,7 +3882,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3907,7 +3898,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,14 +3908,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3940,7 +3931,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,11 +3941,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3966,14 +3957,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3983,11 +3974,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3999,7 +3990,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4016,14 +4007,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4032,7 +4023,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4049,14 +4040,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4072,7 +4063,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,11 +4073,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4098,14 +4089,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,11 +4106,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4138,7 +4129,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4155,7 +4146,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4171,7 +4162,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,14 +4172,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4197,14 +4188,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4214,82 +4205,49 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="A92" s="7">
-        <v>86</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c t="s" r="C92" s="8">
+      <c r="P92" s="13">
+        <v>4280.625</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>257</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
         <v>258</v>
       </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c t="s" r="H92" s="9">
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
         <v>259</v>
       </c>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c t="s" r="L92" s="10">
-        <v>116</v>
-      </c>
-      <c r="M92" s="10"/>
-      <c t="s" r="N92" s="8">
-        <v>39</v>
-      </c>
-      <c r="O92" s="8"/>
-      <c t="s" r="P92" s="11">
-        <v>40</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4430.625</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>260</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>261</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>262</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4723,15 +4681,10 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -677,10 +677,13 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>32.6400</t>
+    <t>134.6400</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -737,7 +740,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -782,7 +788,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:00 PM</t>
+    <t>Wednesday, 9 July, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3766,7 +3772,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,14 +3782,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,14 +3798,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3809,7 +3815,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3825,14 +3831,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3842,11 +3848,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3858,7 +3864,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3875,11 +3881,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -3891,14 +3897,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3908,11 +3914,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3924,7 +3930,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3941,11 +3947,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3957,7 +3963,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3974,7 +3980,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -3990,7 +3996,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4007,14 +4013,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,7 +4029,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4040,11 +4046,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4056,14 +4062,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,11 +4079,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4089,7 +4095,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4106,11 +4112,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4122,7 +4128,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4139,11 +4145,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4155,7 +4161,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4172,11 +4178,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4188,14 +4194,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4217,13 +4223,13 @@
     </row>
     <row r="92" ht="25.5" customHeight="1">
       <c r="P92" s="13">
-        <v>4280.625</v>
+        <v>4394.625</v>
       </c>
       <c r="Q92" s="13"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
       <c t="s" r="A93" s="14">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4231,13 +4237,13 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c t="s" r="G93" s="15">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="16"/>
       <c t="s" r="K93" s="17">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L93" s="17"/>
       <c r="M93" s="17"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -716,6 +716,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -749,9 +758,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>3.0000</t>
   </si>
   <si>
@@ -788,7 +794,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:01 PM</t>
+    <t>Wednesday, 9 July, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3904,7 +3910,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3914,14 +3920,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3937,7 +3943,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3947,11 +3953,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3963,14 +3969,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3980,11 +3986,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3996,7 +4002,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4013,14 +4019,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4046,14 +4052,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>247</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4069,7 +4075,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4079,11 +4085,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4102,7 +4108,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4112,11 +4118,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4128,14 +4134,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4145,14 +4151,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4161,14 +4167,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4178,14 +4184,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4194,14 +4200,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4211,49 +4217,82 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>259</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>260</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>116</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>39</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q91" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4394.625</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>259</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>260</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4400.625</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>261</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>262</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>263</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4687,10 +4726,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -221,6 +221,18 @@
     <t>34.5000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -317,12 +329,6 @@
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -341,6 +347,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>EPICEPHIN 500MG I.M. VIAL</t>
   </si>
   <si>
@@ -704,9 +719,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -794,7 +806,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:03 PM</t>
+    <t>Wednesday, 9 July, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2006,14 +2018,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2039,14 +2051,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2062,7 +2074,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2079,7 +2091,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2088,14 +2100,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2112,7 +2124,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2128,7 +2140,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2171,11 +2183,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2204,11 +2216,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2220,14 +2232,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2270,14 +2282,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2303,11 +2315,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2336,11 +2348,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2402,7 +2414,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2425,21 +2437,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>75</v>
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2468,11 +2480,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2484,31 +2496,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2534,14 +2546,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2623,7 +2635,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2666,14 +2678,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2699,11 +2711,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2732,11 +2744,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2788,7 +2800,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2821,7 +2833,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2831,7 +2843,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2854,7 +2866,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2887,7 +2899,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2897,14 +2909,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2920,7 +2932,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2946,14 +2958,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2996,14 +3008,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3012,7 +3024,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3062,11 +3074,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3078,7 +3090,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3095,14 +3107,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3128,14 +3140,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3151,7 +3163,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3165,10 +3177,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3194,7 +3206,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3217,7 +3229,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3260,11 +3272,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,14 +3305,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3326,14 +3338,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3342,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,11 +3371,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3425,11 +3437,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3441,28 +3453,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3491,14 +3503,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3507,31 +3519,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3547,7 +3559,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3564,7 +3576,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3580,7 +3592,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,11 +3635,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3656,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3679,7 +3691,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3689,11 +3701,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3722,11 +3734,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3755,11 +3767,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3788,14 +3800,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3821,14 +3833,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3837,31 +3849,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3870,28 +3882,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -3903,31 +3915,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,31 +3948,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3969,31 +3981,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,28 +4014,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4042,24 +4054,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4068,7 +4080,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4081,15 +4093,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4101,31 +4113,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4141,21 +4153,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4167,31 +4179,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4200,28 +4212,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4240,59 +4252,125 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>262</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>38</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>121</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>237</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>263</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>264</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>121</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>39</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4400.625</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>261</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>262</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>263</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4458.625</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>265</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>266</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>267</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4731,10 +4809,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -806,7 +806,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:04 PM</t>
+    <t>Wednesday, 9 July, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -578,6 +578,15 @@
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
+    <t>PENDULINE كريم ب زبدة الشيا</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -806,7 +815,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:05 PM</t>
+    <t>Wednesday, 9 July, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3427,13 +3436,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3444,7 +3453,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3460,7 +3469,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3477,7 +3486,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3493,7 +3502,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,14 +3512,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3519,20 +3528,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3543,7 +3552,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3559,13 +3568,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3576,7 +3585,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3592,7 +3601,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,14 +3611,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3618,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,14 +3644,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3658,7 +3667,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3675,7 +3684,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>216</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3724,7 +3733,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3738,7 +3747,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3750,7 +3759,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3767,11 +3776,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,11 +3809,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3856,7 +3865,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3928,7 +3937,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3936,10 +3945,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3955,7 +3964,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3965,14 +3974,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3988,7 +3997,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4021,7 +4030,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4054,7 +4063,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4080,14 +4089,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,11 +4106,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4113,7 +4122,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4163,14 +4172,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,14 +4188,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,11 +4205,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,11 +4238,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4252,7 +4261,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4269,7 +4278,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4285,7 +4294,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,14 +4304,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4311,14 +4320,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4328,49 +4337,82 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>266</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>267</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>121</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>39</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4458.625</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>265</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>266</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>267</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4593.625</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>268</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>269</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>270</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4819,10 +4861,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -413,6 +413,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -551,6 +560,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
@@ -629,9 +647,6 @@
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
     <t>11.0000</t>
   </si>
   <si>
@@ -641,6 +656,15 @@
     <t>4:1</t>
   </si>
   <si>
+    <t>SULBIN 1.5GM VIAL</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
     <t>SUPRAX 400MG 5 TAB</t>
   </si>
   <si>
@@ -770,24 +794,21 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>67:0</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>67:0</t>
-  </si>
-  <si>
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
@@ -815,7 +836,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:13 PM</t>
+    <t>Wednesday, 9 July, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2644,7 +2665,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2654,14 +2675,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2687,11 +2708,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2743,7 +2764,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2776,7 +2797,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2842,7 +2863,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2852,14 +2873,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2885,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2908,7 +2929,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2974,7 +2995,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3073,7 +3094,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3116,14 +3137,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3149,14 +3170,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3238,7 +3259,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,11 +3302,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,7 +3335,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3370,7 +3391,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3396,7 +3417,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3413,14 +3434,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3429,31 +3450,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3462,14 +3483,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3479,11 +3500,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3502,13 +3523,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3535,7 +3556,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,11 +3566,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3561,28 +3582,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3618,7 +3639,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3634,24 +3655,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3660,14 +3681,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3677,14 +3698,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3700,7 +3721,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3710,14 +3731,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>216</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3726,7 +3747,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3743,14 +3764,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3759,7 +3780,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3776,11 +3797,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3792,14 +3813,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3809,14 +3830,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3825,14 +3846,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3842,11 +3863,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3858,14 +3879,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,11 +3896,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3891,14 +3912,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,14 +3929,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3924,14 +3945,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,14 +3962,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3957,28 +3978,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3990,31 +4011,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4023,20 +4044,20 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4044,7 +4065,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4056,14 +4077,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,11 +4094,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4089,14 +4110,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4106,14 +4127,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,10 +4164,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4155,14 +4176,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,14 +4193,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4188,14 +4209,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,11 +4226,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4221,14 +4242,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4238,11 +4259,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4254,14 +4275,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,14 +4292,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>261</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4304,14 +4325,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4320,14 +4341,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4337,11 +4358,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4360,7 +4381,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4370,49 +4391,148 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>269</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>64</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>121</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>270</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>272</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>38</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>121</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>248</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>273</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>274</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>121</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>39</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q95" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4593.625</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>268</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>269</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>270</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4843.625</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>275</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>276</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>277</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4866,10 +4986,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -296,6 +296,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -359,9 +371,6 @@
     <t>EPICEPHIN 500MG I.M. VIAL</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>99.0000</t>
   </si>
   <si>
@@ -605,6 +614,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -773,9 +791,6 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -836,7 +851,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:17 PM</t>
+    <t>Wednesday, 9 July, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2203,7 +2218,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2213,14 +2228,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2229,14 +2244,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2246,11 +2261,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2262,14 +2277,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2279,11 +2294,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2328,14 +2343,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2345,14 +2360,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2378,11 +2393,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2394,14 +2409,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2411,11 +2426,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2427,7 +2442,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2460,14 +2475,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2493,7 +2508,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2510,14 +2525,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2526,31 +2541,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2559,31 +2574,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2592,14 +2607,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2632,7 +2647,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2649,7 +2664,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2665,7 +2680,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2682,7 +2697,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2698,7 +2713,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2741,11 +2756,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2797,7 +2812,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2830,7 +2845,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2896,7 +2911,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2906,14 +2921,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2922,14 +2937,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2939,14 +2954,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2962,7 +2977,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3028,7 +3043,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3127,7 +3142,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3170,14 +3185,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3219,14 +3234,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,14 +3251,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3252,14 +3267,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3269,14 +3284,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3292,7 +3307,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,11 +3350,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3351,7 +3366,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3368,7 +3383,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3391,7 +3406,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3424,7 +3439,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3457,7 +3472,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,11 +3515,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3516,7 +3531,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3529,18 +3544,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3556,13 +3571,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3573,7 +3588,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3589,7 +3604,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3622,7 +3637,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,11 +3647,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3648,28 +3663,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,14 +3713,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,31 +3729,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,14 +3762,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,14 +3779,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,14 +3812,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3820,7 +3835,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3837,7 +3852,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>224</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3846,14 +3861,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,11 +3878,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3912,14 +3927,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,11 +3944,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3962,11 +3977,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3995,11 +4010,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4018,7 +4033,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4028,14 +4043,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4077,31 +4092,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4117,21 +4132,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4150,24 +4165,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4183,24 +4198,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4216,13 +4231,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4230,10 +4245,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4242,28 +4257,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4275,31 +4290,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4308,7 +4323,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4321,18 +4336,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4341,31 +4356,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4374,31 +4389,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4407,31 +4422,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4440,28 +4455,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4473,66 +4488,132 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>64</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>277</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>38</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>124</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>254</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>278</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>279</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>124</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>39</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4843.625</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>275</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>276</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>277</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5032.625</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>280</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>281</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>282</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5001,10 +5082,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -545,6 +545,12 @@
     <t>31.00</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -602,6 +608,12 @@
     <t>2:3</t>
   </si>
   <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -653,6 +665,24 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>65.7500</t>
+  </si>
+  <si>
+    <t>RX MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAPERO  30TAB</t>
   </si>
   <si>
@@ -761,6 +791,15 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>ZYMOVAK 20 TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -779,6 +818,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حامل زراع زولا</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -797,9 +842,6 @@
     <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -839,9 +881,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>كريم 555</t>
   </si>
   <si>
@@ -851,7 +890,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:23 PM</t>
+    <t>Wednesday, 9 July, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3313,18 +3352,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,11 +3389,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3366,7 +3405,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3383,7 +3422,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3416,11 +3455,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3432,14 +3471,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,11 +3488,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3465,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,11 +3521,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3498,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,14 +3554,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3538,7 +3577,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,11 +3587,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3564,31 +3603,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3614,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,31 +3669,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3663,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,11 +3719,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3696,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,11 +3752,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3729,28 +3768,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3762,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3835,13 +3874,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3852,7 +3891,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3874,7 +3913,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3911,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>230</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3927,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3993,7 +4032,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4010,11 +4049,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4033,7 +4072,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4050,7 +4089,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4076,11 +4115,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4092,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4113,10 +4152,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4125,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4142,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4158,28 +4197,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4191,31 +4230,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,31 +4263,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,31 +4296,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4290,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4307,14 +4346,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4330,7 +4369,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4340,11 +4379,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4356,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4373,14 +4412,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>266</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4389,7 +4428,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4406,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4422,14 +4461,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>64</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4455,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4472,11 +4511,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4488,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4505,14 +4544,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4528,7 +4567,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4538,11 +4577,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4554,14 +4593,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4571,49 +4610,247 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>281</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>64</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>124</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>272</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>282</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>283</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>124</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>272</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>285</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>75</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>124</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>286</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>288</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>64</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>124</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>289</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>290</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>38</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>124</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>267</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>291</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>292</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>124</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>39</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5032.625</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>280</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>281</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>282</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5396.375</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>293</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>294</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>295</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5092,10 +5329,40 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:26 PM</t>
+    <t>Wednesday, 9 July, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -221,10 +221,124 @@
     <t>34.5000</t>
   </si>
   <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CIDAMEX 250MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CORTILON 0.1 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
     <t>23.00</t>
@@ -233,114 +347,6 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CIDAMEX 250MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CORTILON 0.1 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -356,9 +362,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -542,9 +545,6 @@
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -830,33 +830,36 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -890,7 +893,13 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:27 PM</t>
+    <t xml:space="preserve">مسواك اسنان </t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 9 July, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2076,7 +2085,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2448,7 +2457,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2481,7 +2490,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2498,11 +2507,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2514,7 +2523,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2531,11 +2540,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2547,7 +2556,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2568,10 +2577,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2580,7 +2589,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2601,7 +2610,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2613,7 +2622,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2626,15 +2635,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>79</v>
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,11 +2672,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2679,7 +2688,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2696,11 +2705,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2712,7 +2721,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2729,11 +2738,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2745,7 +2754,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2762,11 +2771,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,11 +2804,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2811,7 +2820,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2844,7 +2853,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2861,11 +2870,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2877,7 +2886,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2894,11 +2903,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2910,7 +2919,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2927,11 +2936,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2943,7 +2952,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2960,11 +2969,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2976,7 +2985,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2997,7 +3006,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3009,7 +3018,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3026,11 +3035,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3042,7 +3051,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3063,7 +3072,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3075,7 +3084,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3092,11 +3101,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3108,7 +3117,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3129,7 +3138,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -3141,7 +3150,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3174,7 +3183,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3207,7 +3216,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3240,7 +3249,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3273,7 +3282,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3306,7 +3315,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3323,11 +3332,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3352,7 +3361,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3455,7 +3464,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3591,7 +3600,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3682,7 +3691,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3880,7 +3889,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3913,7 +3922,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4152,7 +4161,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4342,7 +4351,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4375,7 +4384,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4383,7 +4392,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4408,7 +4417,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4441,7 +4450,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4474,7 +4483,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4485,7 +4494,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4507,7 +4516,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4534,13 +4543,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4573,7 +4582,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4606,7 +4615,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4639,7 +4648,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4647,7 +4656,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4659,20 +4668,20 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4680,7 +4689,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4692,28 +4701,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4725,7 +4734,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4738,11 +4747,11 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4758,7 +4767,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4771,7 +4780,7 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4791,20 +4800,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4819,38 +4828,71 @@
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5396.375</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>293</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>294</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>18</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>125</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>290</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>295</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5453.375</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>296</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>297</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>298</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5359,10 +5401,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -371,6 +380,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>EPICEPHIN 500MG I.M. VIAL</t>
   </si>
   <si>
@@ -545,6 +563,9 @@
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
+    <t>MOVEASY 10 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -569,6 +590,15 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>NORFLEX 100MG 20 TAB.</t>
   </si>
   <si>
@@ -629,9 +659,6 @@
     <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
   </si>
   <si>
-    <t>156.00</t>
-  </si>
-  <si>
     <t>156.0000</t>
   </si>
   <si>
@@ -878,12 +905,21 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>كريم 555</t>
   </si>
   <si>
@@ -896,10 +932,16 @@
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 9 July, 2025 9:37 PM</t>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 9 July, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1804,7 +1846,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1821,7 +1863,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1837,7 +1879,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1854,7 +1896,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1870,7 +1912,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1880,11 +1922,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1896,14 +1938,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1913,14 +1955,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1929,14 +1971,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1946,14 +1988,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1969,7 +2011,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1979,11 +2021,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1995,14 +2037,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2019,7 +2061,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2035,7 +2077,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2045,14 +2087,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2061,14 +2103,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2078,14 +2120,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2094,14 +2136,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2111,14 +2153,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2134,7 +2176,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2144,14 +2186,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2167,7 +2209,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2184,7 +2226,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2193,14 +2235,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2210,14 +2252,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2233,7 +2275,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2243,14 +2285,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2259,14 +2301,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2276,11 +2318,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2292,14 +2334,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2316,7 +2358,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2332,7 +2374,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2365,7 +2407,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2375,11 +2417,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2391,14 +2433,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2424,14 +2466,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,14 +2483,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2464,7 +2506,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2497,7 +2539,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2511,7 +2553,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2523,14 +2565,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2540,14 +2582,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2563,7 +2605,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,14 +2615,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2589,7 +2631,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2606,11 +2648,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2622,31 +2664,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2662,7 +2704,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,11 +2714,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2688,31 +2730,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2721,14 +2763,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2745,7 +2787,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2761,7 +2803,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2794,7 +2836,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,14 +2846,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2820,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2837,14 +2879,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2853,14 +2895,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2870,14 +2912,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2886,14 +2928,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,14 +2945,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2926,7 +2968,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2959,7 +3001,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2992,7 +3034,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,14 +3044,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3018,14 +3060,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,11 +3077,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3051,14 +3093,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3068,11 +3110,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3084,14 +3126,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3101,11 +3143,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3117,14 +3159,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3134,14 +3176,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3150,14 +3192,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3167,14 +3209,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3183,14 +3225,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,14 +3242,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3216,14 +3258,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3233,14 +3275,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3249,7 +3291,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3266,14 +3308,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3282,14 +3324,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,11 +3341,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3315,7 +3357,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3332,14 +3374,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3348,28 +3390,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3381,14 +3423,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3398,14 +3440,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3414,14 +3456,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3431,14 +3473,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3447,31 +3489,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3480,14 +3522,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,11 +3539,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3513,14 +3555,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,11 +3572,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3546,14 +3588,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,14 +3605,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3579,14 +3621,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,14 +3638,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3612,14 +3654,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,14 +3671,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3652,7 +3694,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,14 +3704,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3678,28 +3720,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3711,14 +3753,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,14 +3770,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3744,7 +3786,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3761,11 +3803,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3784,7 +3826,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3794,14 +3836,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3810,31 +3852,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3843,14 +3885,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,11 +3902,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3876,31 +3918,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3909,28 +3951,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3942,14 +3984,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +4001,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3975,14 +4017,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4034,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,31 +4050,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4041,28 +4083,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4074,14 +4116,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,14 +4133,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>240</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4166,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,14 +4199,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4173,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,11 +4232,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4206,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>249</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4246,7 +4288,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4279,7 +4321,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,14 +4331,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,14 +4364,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,31 +4380,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4371,28 +4413,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4404,31 +4446,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,31 +4479,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,31 +4512,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4503,28 +4545,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4536,31 +4578,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4569,28 +4611,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4602,31 +4644,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>280</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,31 +4677,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,28 +4710,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4708,13 +4750,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4722,7 +4764,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4734,31 +4776,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4767,31 +4809,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4813,15 +4855,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4833,66 +4875,264 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5453.375</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>296</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>297</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>298</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>299</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>131</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>300</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>302</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>67</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>131</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>300</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>303</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>38</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>131</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>276</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>304</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>305</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>131</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>39</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>306</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>18</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>131</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>300</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>307</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>16</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>131</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>308</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5745.8549999999996</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>310</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>311</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>312</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5406,10 +5646,40 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -845,30 +845,27 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>حامل زراع زولا</t>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
   </si>
   <si>
     <t>40.00</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -941,7 +938,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:40 PM</t>
+    <t>Wednesday, 9 July, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4632,10 +4629,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4644,14 +4641,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4661,14 +4658,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4684,7 +4681,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4694,11 +4691,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4717,7 +4714,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4727,11 +4724,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4743,7 +4740,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4760,14 +4757,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4776,7 +4773,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4793,14 +4790,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>289</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4809,14 +4806,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4826,14 +4823,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4842,14 +4839,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4859,11 +4856,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4875,14 +4872,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4892,11 +4889,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4908,14 +4905,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4925,14 +4922,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4948,7 +4945,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4958,14 +4955,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4981,7 +4978,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4991,11 +4988,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5007,14 +5004,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5024,11 +5021,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5047,7 +5044,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5057,82 +5054,49 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="A113" s="7">
-        <v>107</v>
-      </c>
-      <c r="B113" s="7"/>
-      <c t="s" r="C113" s="8">
-        <v>307</v>
-      </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c t="s" r="H113" s="9">
-        <v>16</v>
-      </c>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c t="s" r="L113" s="10">
-        <v>131</v>
-      </c>
-      <c r="M113" s="10"/>
-      <c t="s" r="N113" s="8">
-        <v>308</v>
-      </c>
-      <c r="O113" s="8"/>
-      <c t="s" r="P113" s="11">
+      <c r="P113" s="13">
+        <v>5705.8549999999996</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
         <v>309</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5745.8549999999996</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
         <v>310</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
         <v>311</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>312</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5671,15 +5635,10 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -938,7 +938,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:47 PM</t>
+    <t>Wednesday, 9 July, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -938,7 +938,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:48 PM</t>
+    <t>Wednesday, 9 July, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -284,6 +284,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -419,9 +428,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
     <t>10.0800</t>
   </si>
   <si>
@@ -476,6 +482,18 @@
     <t>12.3750</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -608,12 +626,6 @@
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
@@ -635,7 +647,7 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
@@ -917,6 +929,12 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كحول 70%</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
     <t>كريم 555</t>
   </si>
   <si>
@@ -938,7 +956,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:50 PM</t>
+    <t>Wednesday, 9 July, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2272,7 +2290,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2289,7 +2307,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2305,7 +2323,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2348,11 +2366,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2364,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2388,7 +2406,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2404,7 +2422,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2437,7 +2455,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2447,11 +2465,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2513,14 +2531,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2536,7 +2554,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2569,7 +2587,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2583,7 +2601,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2595,7 +2613,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2635,7 +2653,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2678,14 +2696,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2694,7 +2712,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2727,31 +2745,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2760,31 +2778,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2810,11 +2828,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2843,14 +2861,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2876,14 +2894,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2925,14 +2943,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2942,11 +2960,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2975,14 +2993,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3008,11 +3026,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3048,7 +3066,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3064,7 +3082,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3097,7 +3115,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3140,11 +3158,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3173,11 +3191,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3206,11 +3224,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3239,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3272,14 +3290,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3288,14 +3306,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3305,14 +3323,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3338,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3354,7 +3372,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3371,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3387,7 +3405,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3404,11 +3422,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3420,7 +3438,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3437,14 +3455,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3470,11 +3488,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3486,31 +3504,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3519,7 +3537,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3536,14 +3554,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3552,31 +3570,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3592,7 +3610,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3609,7 +3627,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3635,11 +3653,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3651,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,14 +3686,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3701,7 +3719,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3734,11 +3752,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3750,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3767,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3783,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3800,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3823,7 +3841,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3833,14 +3851,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3849,31 +3867,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3899,14 +3917,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3915,31 +3933,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3948,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3965,11 +3983,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3981,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,11 +4016,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4014,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4031,11 +4049,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4047,31 +4065,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4080,7 +4098,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4093,15 +4111,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4113,31 +4131,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4146,31 +4164,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4186,7 +4204,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4196,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4212,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4229,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>106</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4245,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4262,14 +4280,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>249</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4278,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4295,11 +4313,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4311,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4328,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4344,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,11 +4379,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4377,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,11 +4412,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4417,7 +4435,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,11 +4445,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4443,14 +4461,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4460,14 +4478,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4476,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,14 +4511,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4509,31 +4527,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4542,31 +4560,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4575,31 +4593,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,31 +4626,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4641,31 +4659,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,31 +4692,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4714,21 +4732,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4747,24 +4765,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4786,18 +4804,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4813,24 +4831,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4839,31 +4857,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4872,28 +4890,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4905,20 +4923,20 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4926,10 +4944,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4938,28 +4956,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4971,31 +4989,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>67</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5004,28 +5022,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5037,66 +5055,165 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5705.8549999999996</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>309</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
         <v>310</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>134</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>39</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>311</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>18</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>134</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>303</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>312</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>16</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>134</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>313</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5786.6450000000004</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>315</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>316</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>317</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5635,10 +5752,25 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -431,6 +431,15 @@
     <t>10.0800</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
@@ -614,9 +623,6 @@
     <t>152.00</t>
   </si>
   <si>
-    <t>76.0000</t>
-  </si>
-  <si>
     <t>NORFLEX 100MG 20 TAB.</t>
   </si>
   <si>
@@ -956,7 +962,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 9:55 PM</t>
+    <t>Wednesday, 9 July, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2851,7 +2857,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2868,7 +2874,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2884,7 +2890,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2901,7 +2907,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2917,7 +2923,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2934,7 +2940,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2950,7 +2956,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2960,14 +2966,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2976,14 +2982,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2993,11 +2999,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3009,14 +3015,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3049,7 +3055,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3099,7 +3105,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3115,7 +3121,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3181,7 +3187,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3191,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,14 +3230,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3247,7 +3253,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3313,7 +3319,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,14 +3362,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,14 +3395,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3412,7 +3418,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3422,14 +3428,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,7 +3576,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3583,15 +3589,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3603,7 +3609,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3616,18 +3622,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3643,7 +3649,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3676,7 +3682,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3693,7 +3699,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3709,7 +3715,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3719,14 +3725,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3752,11 +3758,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3768,14 +3774,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,11 +3791,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,11 +3824,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3874,7 +3880,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3907,7 +3913,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,11 +3923,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3933,7 +3939,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3946,18 +3952,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3966,7 +3972,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3979,11 +3985,11 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4006,7 +4012,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4065,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,7 +4137,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4144,15 +4150,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4164,7 +4170,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4181,11 +4187,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4197,31 +4203,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4237,7 +4243,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4270,7 +4276,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,14 +4319,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4352,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,14 +4401,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,11 +4418,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4445,11 +4451,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4461,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,11 +4484,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4494,7 +4500,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4511,11 +4517,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4527,14 +4533,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4560,14 +4566,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,14 +4583,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,20 +4599,20 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4614,10 +4620,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,14 +4649,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4659,14 +4665,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4680,10 +4686,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4692,14 +4698,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4709,14 +4715,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4765,7 +4771,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4775,11 +4781,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4798,7 +4804,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4812,7 +4818,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4841,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>281</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4874,14 +4880,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>294</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4897,7 +4903,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>67</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4907,14 +4913,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4940,11 +4946,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4956,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,11 +4979,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4989,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5006,14 +5012,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5022,14 +5028,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>67</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5039,14 +5045,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5062,7 +5068,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5072,11 +5078,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5088,14 +5094,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5105,11 +5111,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5128,7 +5134,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5138,11 +5144,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5154,14 +5160,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5171,49 +5177,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>314</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5786.6450000000004</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>16</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>134</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
         <v>315</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>316</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5862.6450000000004</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
         <v>317</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>318</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>319</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5767,10 +5806,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:03 PM</t>
+    <t>Wednesday, 9 July, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -212,9 +224,6 @@
     <t>CECLOR 125MG/5ML SUSP. 75ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>42.50</t>
   </si>
   <si>
@@ -410,6 +419,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
@@ -506,9 +524,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
@@ -536,6 +551,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>LEVODEL 500MG 5 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -581,6 +605,9 @@
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
   </si>
   <si>
+    <t>MEGALASE 30 TAB</t>
+  </si>
+  <si>
     <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
@@ -821,9 +848,6 @@
     <t>1:3</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>134.6400</t>
   </si>
   <si>
@@ -911,6 +935,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
@@ -944,6 +977,15 @@
     <t>كريم 555</t>
   </si>
   <si>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -956,13 +998,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 9 July, 2025 10:04 PM</t>
+    <t>Wednesday, 9 July, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1900,7 +1936,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1910,14 +1946,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1926,14 +1962,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1943,14 +1979,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1959,14 +1995,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2016,7 +2052,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2025,14 +2061,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2049,7 +2085,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2058,14 +2094,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2098,7 +2134,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2115,7 +2151,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2131,7 +2167,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2141,14 +2177,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2157,14 +2193,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2174,14 +2210,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2190,14 +2226,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2207,14 +2243,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2230,7 +2266,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2240,14 +2276,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2263,7 +2299,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2280,7 +2316,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2289,14 +2325,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2306,14 +2342,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2329,7 +2365,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2346,7 +2382,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2362,7 +2398,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2372,14 +2408,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2388,14 +2424,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2405,11 +2441,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2421,14 +2457,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2445,7 +2481,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2461,7 +2497,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2494,7 +2530,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2504,11 +2540,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2520,14 +2556,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2553,14 +2589,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,14 +2606,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2593,7 +2629,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2626,7 +2662,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2640,7 +2676,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2652,14 +2688,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2669,14 +2705,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2692,7 +2728,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2735,14 +2771,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2751,7 +2787,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2768,14 +2804,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2784,31 +2820,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2817,14 +2853,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,11 +2870,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2850,20 +2886,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2874,7 +2910,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2890,7 +2926,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2900,7 +2936,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2923,7 +2959,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2940,7 +2976,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2956,7 +2992,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2989,7 +3025,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2999,14 +3035,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3015,14 +3051,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3032,14 +3068,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3048,14 +3084,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,14 +3101,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3081,14 +3117,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3098,11 +3134,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3114,14 +3150,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3131,11 +3167,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3147,14 +3183,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3171,7 +3207,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3187,7 +3223,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,11 +3233,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3213,14 +3249,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,14 +3266,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3253,7 +3289,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3286,7 +3322,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3296,7 +3332,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3319,7 +3355,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3336,7 +3372,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3352,7 +3388,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3362,14 +3398,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3378,7 +3414,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3395,11 +3431,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3411,14 +3447,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3428,14 +3464,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,14 +3480,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3465,10 +3501,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3477,14 +3513,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3494,11 +3530,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3510,14 +3546,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,14 +3563,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,14 +3579,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,14 +3596,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,14 +3612,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3593,11 +3629,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3609,31 +3645,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,14 +3678,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3695,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3675,14 +3711,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,14 +3728,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3715,7 +3751,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3725,11 +3761,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3741,31 +3777,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3774,14 +3810,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3791,11 +3827,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3807,14 +3843,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,11 +3860,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3840,14 +3876,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,14 +3893,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3880,7 +3916,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,14 +3926,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3913,7 +3949,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3959,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,14 +3975,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,14 +3992,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3972,28 +4008,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4005,14 +4041,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,14 +4058,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4038,7 +4074,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4055,11 +4091,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4078,7 +4114,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,14 +4124,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4104,31 +4140,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,14 +4173,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,11 +4190,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4170,31 +4206,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4203,28 +4239,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4236,14 +4272,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4289,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4269,14 +4305,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4322,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,31 +4338,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,28 +4371,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4368,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4421,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>255</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4454,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4434,14 +4470,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,14 +4487,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4467,14 +4503,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,11 +4520,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4500,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,14 +4553,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>264</v>
-      </c>
-      <c t="s" r="Q95" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4540,7 +4576,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4573,7 +4609,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,14 +4619,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,14 +4635,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,14 +4652,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4632,31 +4668,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,28 +4701,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4698,31 +4734,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4731,31 +4767,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,31 +4800,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,28 +4833,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4830,31 +4866,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,31 +4899,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>294</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4903,24 +4939,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4936,21 +4972,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4962,28 +4998,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4995,31 +5031,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>49</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,31 +5064,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,28 +5097,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5094,28 +5130,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5134,21 +5170,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5160,28 +5196,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5193,66 +5229,264 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>319</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>320</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>140</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
         <v>316</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5862.6450000000004</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>317</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>318</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>319</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>321</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>38</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>140</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>290</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>322</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>18</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>140</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>323</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>325</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>326</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>140</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>39</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>18</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>140</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>316</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>328</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>16</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>140</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>323</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6337.4049999999997</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>329</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>330</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>331</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5811,10 +6045,40 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -551,6 +551,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
     <t>LEVODEL 500MG 5 F.C. TABS.</t>
   </si>
   <si>
@@ -813,6 +822,15 @@
   </si>
   <si>
     <t>28.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
   </si>
   <si>
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
@@ -3388,7 +3406,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3405,7 +3423,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3421,7 +3439,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3487,7 +3505,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3497,14 +3515,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3563,14 +3581,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3586,7 +3604,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3612,7 +3630,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3629,11 +3647,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,14 +3680,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,14 +3713,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,14 +3746,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3761,14 +3779,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3777,7 +3795,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3790,15 +3808,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3810,7 +3828,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3823,18 +3841,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3850,7 +3868,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3883,7 +3901,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3897,10 +3915,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3942,7 +3960,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3959,11 +3977,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3992,11 +4010,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4015,7 +4033,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4048,7 +4066,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4124,11 +4142,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4140,7 +4158,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4153,18 +4171,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4186,15 +4204,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4206,14 +4224,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4223,14 +4241,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4246,7 +4264,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4263,7 +4281,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4279,7 +4297,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4329,7 +4347,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4351,7 +4369,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4411,24 +4429,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4454,14 +4472,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,14 +4488,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,14 +4505,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4510,7 +4528,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4527,7 +4545,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4543,7 +4561,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4560,7 +4578,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4569,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4586,14 +4604,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>267</v>
-      </c>
-      <c t="s" r="Q96" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4609,7 +4627,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4623,7 +4641,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4652,11 +4670,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4685,11 +4703,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4701,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,11 +4736,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4741,7 +4759,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4774,7 +4792,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,14 +4802,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4807,24 +4825,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4846,7 +4864,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4854,10 +4872,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4873,7 +4891,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4890,7 +4908,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4906,7 +4924,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,14 +4934,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4939,7 +4957,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4949,14 +4967,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4965,14 +4983,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4982,14 +5000,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,14 +5016,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5015,11 +5033,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5031,14 +5049,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5048,14 +5066,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>302</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5064,7 +5082,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5081,14 +5099,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5097,14 +5115,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5114,14 +5132,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5130,7 +5148,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5147,14 +5165,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5170,7 +5188,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5180,7 +5198,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5203,7 +5221,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>49</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5213,11 +5231,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5229,14 +5247,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5246,14 +5264,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5262,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5279,11 +5297,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5295,14 +5313,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,14 +5330,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5328,14 +5346,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5345,11 +5363,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5361,14 +5379,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5378,11 +5396,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5394,7 +5412,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5411,11 +5429,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5427,14 +5445,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5444,49 +5462,115 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>323</v>
+        <v>39</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6337.4049999999997</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>333</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>18</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>140</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>322</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>334</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>16</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>140</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
         <v>329</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>330</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>331</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6702.4049999999997</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>335</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>336</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>337</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6075,10 +6159,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -1016,7 +1016,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:11 PM</t>
+    <t>Wednesday, 9 July, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -1016,7 +1016,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:12 PM</t>
+    <t>Wednesday, 9 July, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -4014,10 +4014,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -5540,7 +5540,7 @@
     </row>
     <row r="125" ht="24.75" customHeight="1">
       <c r="P125" s="13">
-        <v>6702.4049999999997</v>
+        <v>6724.4049999999997</v>
       </c>
       <c r="Q125" s="13"/>
     </row>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -44,24 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ADOL 500MG 24 CAPLETS</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
@@ -80,9 +86,6 @@
     <t>ALLERGICASONE 125/50 MCG NASAL SPRAY 140 ACTUATIONS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -122,6 +125,18 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -338,9 +353,6 @@
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -398,6 +410,9 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -575,9 +590,6 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
@@ -677,6 +689,15 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OMIT-C MOUTH SPRAY 60 ML</t>
   </si>
   <si>
@@ -899,9 +920,6 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -917,9 +935,6 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
   </si>
   <si>
@@ -935,7 +950,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1016,7 +1031,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:17 PM</t>
+    <t>Wednesday, 9 July, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1700,14 +1715,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1716,14 +1731,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1733,14 +1748,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1749,14 +1764,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1766,14 +1781,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1799,14 +1814,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1832,14 +1847,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1865,14 +1880,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1881,14 +1896,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1898,14 +1913,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1914,14 +1929,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1931,14 +1946,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1947,14 +1962,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1964,14 +1979,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1980,14 +1995,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1997,14 +2012,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2030,14 +2045,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2063,14 +2078,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2079,14 +2094,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2096,14 +2111,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2162,14 +2177,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2178,14 +2193,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2195,14 +2210,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2228,11 +2243,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2261,11 +2276,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>23</v>
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2327,14 +2342,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2393,14 +2408,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2508,14 +2523,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2525,14 +2540,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2558,14 +2573,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2591,14 +2606,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2607,14 +2622,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2624,14 +2639,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2647,7 +2662,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2690,14 +2705,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2706,14 +2721,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2723,11 +2738,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2739,14 +2754,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2756,14 +2771,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2772,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2789,14 +2804,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2805,14 +2820,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2822,14 +2837,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2838,14 +2853,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2855,14 +2870,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2871,14 +2886,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2888,14 +2903,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2904,31 +2919,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2937,14 +2952,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2954,14 +2969,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2970,14 +2985,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2987,14 +3002,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3003,31 +3018,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3036,14 +3051,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3053,11 +3068,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -3069,14 +3084,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3086,14 +3101,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3102,14 +3117,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3119,14 +3134,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3152,14 +3167,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3168,14 +3183,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3185,14 +3200,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3201,14 +3216,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3218,11 +3233,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3234,14 +3249,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,14 +3266,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3267,14 +3282,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3284,14 +3299,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3300,14 +3315,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3333,14 +3348,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3350,14 +3365,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3366,14 +3381,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3383,14 +3398,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3399,14 +3414,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3416,14 +3431,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3482,11 +3497,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,14 +3563,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3564,7 +3579,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3581,11 +3596,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3614,14 +3629,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3647,14 +3662,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3680,14 +3695,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3713,14 +3728,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3746,14 +3761,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3762,14 +3777,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3779,11 +3794,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3795,14 +3810,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3812,14 +3827,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3828,31 +3843,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3868,7 +3883,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3894,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3911,14 +3926,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3927,31 +3942,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3960,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3977,11 +3992,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3993,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,14 +4025,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4026,14 +4041,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4043,14 +4058,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4059,14 +4074,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4076,11 +4091,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4092,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,14 +4124,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,14 +4157,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,14 +4173,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,14 +4190,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4191,28 +4206,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4224,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,14 +4256,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4257,14 +4272,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4274,14 +4289,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4290,14 +4305,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4307,14 +4322,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4323,31 +4338,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>54</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,14 +4371,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4373,11 +4388,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>51</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4389,31 +4404,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4422,28 +4437,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4455,14 +4470,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,14 +4487,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4488,14 +4503,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,14 +4520,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4521,31 +4536,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4554,28 +4569,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4587,14 +4602,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,14 +4619,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>267</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4620,14 +4635,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,14 +4652,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4653,14 +4668,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,14 +4685,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4686,14 +4701,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,11 +4718,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4719,14 +4734,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4736,14 +4751,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4752,14 +4767,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,11 +4784,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4785,7 +4800,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4802,11 +4817,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4818,14 +4833,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4835,14 +4850,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>50</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,14 +4866,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>54</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,14 +4883,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4884,31 +4899,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,28 +4932,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4950,31 +4965,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4983,31 +4998,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5016,31 +5031,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,28 +5064,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5082,31 +5097,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,31 +5130,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>308</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,31 +5163,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,28 +5196,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5214,28 +5229,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5247,31 +5262,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5280,31 +5295,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>54</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,31 +5328,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5346,28 +5361,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5379,28 +5394,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5412,28 +5427,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5445,31 +5460,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>332</v>
+        <v>54</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>39</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5478,28 +5493,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>18</v>
+        <v>331</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5511,66 +5526,198 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6724.4049999999997</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>333</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>20</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>145</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>334</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>335</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>336</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
         <v>337</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>145</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>44</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>338</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>20</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>145</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>327</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>339</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>16</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>145</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>334</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6827.5150000000003</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>340</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>341</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>342</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6169,10 +6316,30 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -203,13 +203,16 @@
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
-    <t>0:8</t>
+    <t>0:5</t>
   </si>
   <si>
     <t>72.00</t>
   </si>
   <si>
-    <t>7.9200</t>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
@@ -224,9 +227,6 @@
     <t>78.0000</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>CAVENTOL SYRUP 120 ML</t>
   </si>
   <si>
@@ -431,9 +431,6 @@
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>31.6800</t>
-  </si>
-  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -590,6 +587,15 @@
     <t>48.00</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
@@ -1031,7 +1037,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:23 PM</t>
+    <t>Wednesday, 9 July, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2151,7 +2157,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2160,14 +2166,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2177,14 +2183,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2973,7 +2979,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2985,7 +2991,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3002,11 +3008,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>23</v>
@@ -3018,7 +3024,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3031,15 +3037,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>90</v>
@@ -3051,14 +3057,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3072,7 +3078,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -3084,7 +3090,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3101,11 +3107,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3117,7 +3123,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3134,11 +3140,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>23</v>
@@ -3150,7 +3156,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3167,11 +3173,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3183,7 +3189,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3200,11 +3206,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3216,14 +3222,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3233,11 +3239,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3249,7 +3255,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3282,7 +3288,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3299,11 +3305,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3315,14 +3321,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3332,11 +3338,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3348,7 +3354,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3365,11 +3371,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>23</v>
@@ -3381,7 +3387,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3398,11 +3404,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3414,7 +3420,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3431,11 +3437,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3447,7 +3453,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3464,11 +3470,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3480,7 +3486,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3497,11 +3503,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3513,7 +3519,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3530,11 +3536,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3546,7 +3552,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3563,11 +3569,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>35</v>
@@ -3579,14 +3585,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3596,14 +3602,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3619,7 +3625,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3629,14 +3635,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3645,14 +3651,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3662,14 +3668,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3685,7 +3691,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3695,14 +3701,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3711,14 +3717,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3728,14 +3734,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3744,14 +3750,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3761,14 +3767,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3777,7 +3783,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3794,11 +3800,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3810,14 +3816,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3827,14 +3833,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3843,14 +3849,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3860,14 +3866,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3876,14 +3882,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3893,14 +3899,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3909,14 +3915,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3926,14 +3932,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3942,7 +3948,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3955,15 +3961,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3988,18 +3994,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4008,14 +4014,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4025,11 +4031,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4041,14 +4047,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4058,14 +4064,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4081,7 +4087,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4091,14 +4097,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4124,14 +4130,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4140,14 +4146,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4157,14 +4163,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4173,14 +4179,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4190,11 +4196,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4206,14 +4212,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4223,11 +4229,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4256,14 +4262,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4279,7 +4285,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4289,14 +4295,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4312,7 +4318,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4322,11 +4328,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4338,7 +4344,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4351,18 +4357,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4371,7 +4377,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4384,11 +4390,11 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4411,7 +4417,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4421,14 +4427,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4437,14 +4443,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4454,14 +4460,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,14 +4493,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4520,14 +4526,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4536,7 +4542,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4549,15 +4555,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4569,7 +4575,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4582,15 +4588,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4602,31 +4608,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4642,7 +4648,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4652,14 +4658,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4675,7 +4681,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4685,14 +4691,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4701,14 +4707,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4734,14 +4740,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4751,14 +4757,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>274</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4767,14 +4773,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,14 +4790,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4800,14 +4806,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,11 +4823,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4833,14 +4839,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4850,11 +4856,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4883,11 +4889,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4899,14 +4905,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,11 +4922,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4932,7 +4938,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4949,11 +4955,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4965,14 +4971,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4982,14 +4988,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4998,14 +5004,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5015,14 +5021,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>55</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5031,20 +5037,20 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5052,10 +5058,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5064,31 +5070,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>132</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5097,31 +5103,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5137,24 +5143,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5163,31 +5169,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5196,28 +5202,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5236,13 +5242,13 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5250,7 +5256,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5275,18 +5281,18 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>313</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5308,18 +5314,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q117" s="12">
         <v>315</v>
-      </c>
-      <c t="s" r="Q117" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5335,24 +5341,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>54</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5361,28 +5367,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>54</v>
+        <v>319</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5394,28 +5400,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5427,28 +5433,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5460,31 +5466,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5493,31 +5499,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>331</v>
+        <v>54</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5533,21 +5539,21 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5559,28 +5565,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5592,28 +5598,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>337</v>
+        <v>20</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5632,21 +5638,21 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5658,66 +5664,99 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6827.5150000000003</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>340</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>341</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>16</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>144</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>336</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6923.7749999999996</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>342</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>343</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>344</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6336,10 +6375,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -290,12 +299,6 @@
     <t>CIDAMEX 250MG 20 TAB.</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
   </si>
   <si>
@@ -371,6 +374,15 @@
     <t>4:2</t>
   </si>
   <si>
+    <t>DENTINOX 2.65% INFANT COLIC DROPS 100 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -626,7 +638,7 @@
     <t>57.00</t>
   </si>
   <si>
-    <t>171.0000</t>
+    <t>228.0000</t>
   </si>
   <si>
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
@@ -821,6 +833,9 @@
     <t>204.0000</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
     <t>SUPRAX 400MG 5 TAB</t>
   </si>
   <si>
@@ -878,6 +893,9 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -899,12 +917,15 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8566:0</t>
+    <t>8564:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>ZYMOVAK 20 TAB</t>
   </si>
   <si>
@@ -1037,7 +1058,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:26 PM</t>
+    <t>Wednesday, 9 July, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2107,7 +2128,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2124,7 +2145,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2140,7 +2161,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2150,14 +2171,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2166,14 +2187,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2183,14 +2204,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2199,14 +2220,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2223,7 +2244,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2239,7 +2260,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2272,7 +2293,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2289,7 +2310,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2305,7 +2326,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2315,14 +2336,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2331,14 +2352,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2348,14 +2369,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2364,14 +2385,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2381,14 +2402,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2404,7 +2425,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2414,14 +2435,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2437,7 +2458,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2480,14 +2501,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2496,14 +2517,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2529,14 +2550,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2546,14 +2567,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2562,14 +2583,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2579,11 +2600,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2595,14 +2616,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2612,14 +2633,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2645,11 +2666,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2678,11 +2699,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2694,14 +2715,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2744,11 +2765,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2777,14 +2798,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2793,14 +2814,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2810,11 +2831,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2843,14 +2864,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2859,14 +2880,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2876,14 +2897,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2899,7 +2920,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2932,7 +2953,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2942,14 +2963,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2958,7 +2979,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2975,11 +2996,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3031,24 +3052,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3057,14 +3078,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3074,11 +3095,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -3090,31 +3111,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3123,14 +3144,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3140,11 +3161,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>23</v>
@@ -3156,14 +3177,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3173,14 +3194,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3206,11 +3227,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3239,14 +3260,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3312,7 +3333,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3328,7 +3349,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3338,11 +3359,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3371,11 +3392,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>23</v>
@@ -3387,14 +3408,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3404,14 +3425,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3420,14 +3441,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3437,11 +3458,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3470,14 +3491,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3503,14 +3524,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3519,7 +3540,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3536,11 +3557,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3552,14 +3573,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3569,14 +3590,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3585,14 +3606,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3602,14 +3623,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3618,14 +3639,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3635,14 +3656,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3651,14 +3672,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3668,11 +3689,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3684,14 +3705,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3701,14 +3722,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3717,14 +3738,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3734,14 +3755,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3750,14 +3771,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3767,14 +3788,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3790,7 +3811,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3800,14 +3821,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3823,7 +3844,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3833,14 +3854,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3849,14 +3870,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3866,14 +3887,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3882,14 +3903,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3899,11 +3920,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -3915,7 +3936,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3932,14 +3953,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3948,14 +3969,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3965,11 +3986,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3981,31 +4002,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4014,7 +4035,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4031,14 +4052,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4047,31 +4068,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4080,14 +4101,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4097,14 +4118,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4113,7 +4134,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4130,7 +4151,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4153,7 +4174,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4163,14 +4184,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4179,14 +4200,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4196,7 +4217,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4219,7 +4240,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4229,14 +4250,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4245,14 +4266,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4262,11 +4283,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4278,14 +4299,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4295,14 +4316,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4311,14 +4332,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4328,14 +4349,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4351,7 +4372,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4361,14 +4382,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4377,31 +4398,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4427,14 +4448,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4443,31 +4464,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4476,14 +4497,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4493,11 +4514,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4509,14 +4530,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4526,11 +4547,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4542,14 +4563,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4559,11 +4580,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4575,31 +4596,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4608,7 +4629,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4621,15 +4642,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4641,31 +4662,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4674,31 +4695,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4714,7 +4735,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4724,14 +4745,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4740,14 +4761,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4757,14 +4778,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4773,14 +4794,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4790,14 +4811,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>276</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4806,14 +4827,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4823,11 +4844,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4839,14 +4860,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4856,11 +4877,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4872,14 +4893,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4889,14 +4910,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4905,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4922,11 +4943,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4938,7 +4959,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4955,11 +4976,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4971,14 +4992,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4988,11 +5009,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5004,14 +5025,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5021,14 +5042,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5037,14 +5058,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5054,14 +5075,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5070,31 +5091,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5103,28 +5124,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5136,31 +5157,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5169,31 +5190,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5202,31 +5223,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5235,28 +5256,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5268,31 +5289,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>117</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5301,7 +5322,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5314,18 +5335,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>315</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5341,24 +5362,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5367,28 +5388,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>85</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5400,7 +5421,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5413,15 +5434,15 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5433,31 +5454,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5466,31 +5487,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>328</v>
+        <v>54</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5499,31 +5520,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>54</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5532,20 +5553,20 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>333</v>
+        <v>54</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5565,28 +5586,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5598,20 +5619,20 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
@@ -5638,24 +5659,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5664,28 +5685,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5704,59 +5725,191 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>336</v>
+        <v>233</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>342</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>20</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>148</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>343</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>345</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>346</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>148</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>44</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>347</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>20</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>148</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>336</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
         <v>337</v>
       </c>
-      <c t="s" r="Q129" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6923.7749999999996</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>342</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>348</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>16</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>148</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
         <v>343</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>344</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>7252.7749999999996</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>349</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>350</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>351</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6380,10 +6533,30 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -857,6 +857,9 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -1058,7 +1061,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:28 PM</t>
+    <t>Wednesday, 9 July, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4933,7 +4936,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4943,11 +4946,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4959,14 +4962,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4976,11 +4979,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4992,14 +4995,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5009,11 +5012,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5025,7 +5028,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5042,11 +5045,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5065,7 +5068,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5075,11 +5078,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5091,14 +5094,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5108,11 +5111,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5131,7 +5134,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,11 +5144,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5157,14 +5160,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,14 +5177,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>55</v>
+        <v>297</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5190,14 +5193,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5207,14 +5210,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>55</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5223,31 +5226,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,14 +5259,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>54</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,14 +5276,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5289,14 +5292,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,14 +5309,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5322,14 +5325,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,14 +5342,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5355,14 +5358,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,14 +5375,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5395,7 +5398,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5405,11 +5408,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5421,14 +5424,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5438,11 +5441,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>118</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5454,7 +5457,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5471,14 +5474,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>253</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>322</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,7 +5490,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5504,14 +5507,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5520,14 +5523,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,14 +5540,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5553,14 +5556,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>54</v>
+        <v>327</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,11 +5573,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5586,14 +5589,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,11 +5606,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5619,14 +5622,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,11 +5639,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5652,14 +5655,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>54</v>
+        <v>336</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,14 +5672,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5692,7 +5695,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>340</v>
+        <v>54</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5702,14 +5705,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5718,14 +5721,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>43</v>
+        <v>341</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5735,11 +5738,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5758,7 +5761,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5768,11 +5771,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>343</v>
+        <v>233</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5784,14 +5787,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5801,11 +5804,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5817,14 +5820,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5834,11 +5837,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5857,7 +5860,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5867,49 +5870,82 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>349</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>16</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>148</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
         <v>344</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>7252.7749999999996</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>349</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>345</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7302.7749999999996</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
         <v>350</v>
       </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
         <v>351</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>352</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6553,10 +6589,15 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -512,13 +512,10 @@
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>59.00</t>
   </si>
   <si>
-    <t>59.0000</t>
+    <t>295.0000</t>
   </si>
   <si>
     <t>FUNGICARE SOAP 80 GM</t>
@@ -818,6 +815,12 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -896,6 +899,15 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -950,45 +962,45 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
     <t>4.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>21:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -1031,6 +1043,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>كحول 70%</t>
   </si>
   <si>
@@ -1052,16 +1067,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>19:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:33 PM</t>
+    <t>Wednesday, 9 July, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3319,7 +3331,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3345,7 +3357,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3378,7 +3390,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3395,11 +3407,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>23</v>
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3428,11 +3440,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3444,7 +3456,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3465,7 +3477,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3477,7 +3489,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3494,11 +3506,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3510,7 +3522,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3527,11 +3539,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3543,7 +3555,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3564,7 +3576,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3576,7 +3588,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3593,11 +3605,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3609,7 +3621,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3626,11 +3638,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3642,7 +3654,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3659,7 +3671,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3675,7 +3687,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3692,11 +3704,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3708,7 +3720,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3729,7 +3741,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3741,7 +3753,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3774,7 +3786,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3795,7 +3807,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>35</v>
@@ -3807,7 +3819,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3840,7 +3852,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3857,11 +3869,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>43</v>
@@ -3873,7 +3885,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3906,7 +3918,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3927,7 +3939,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -3939,7 +3951,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3972,7 +3984,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4005,7 +4017,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4038,7 +4050,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4071,7 +4083,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4092,7 +4104,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -4104,7 +4116,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4121,11 +4133,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4137,7 +4149,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4154,11 +4166,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4170,7 +4182,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4187,7 +4199,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4203,7 +4215,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4224,7 +4236,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4236,7 +4248,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4253,7 +4265,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4269,7 +4281,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4286,11 +4298,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4302,7 +4314,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4319,11 +4331,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4335,7 +4347,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4368,7 +4380,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4389,7 +4401,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>35</v>
@@ -4401,7 +4413,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4418,7 +4430,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4434,7 +4446,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4467,7 +4479,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4484,11 +4496,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4500,7 +4512,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4521,7 +4533,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4533,7 +4545,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4550,11 +4562,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4566,7 +4578,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4583,11 +4595,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4599,14 +4611,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4616,11 +4628,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4632,7 +4644,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4649,11 +4661,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4665,7 +4677,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4682,11 +4694,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4698,7 +4710,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4715,11 +4727,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4731,7 +4743,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4748,11 +4760,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>35</v>
@@ -4764,14 +4776,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4781,11 +4793,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4797,14 +4809,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4814,14 +4826,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4830,14 +4842,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4847,14 +4859,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4870,7 +4882,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4880,11 +4892,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4896,14 +4908,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4913,14 +4925,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>281</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4929,14 +4941,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,14 +4958,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4969,7 +4981,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,11 +4991,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4995,14 +5007,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,11 +5024,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5028,14 +5040,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,11 +5057,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5061,7 +5073,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5078,11 +5090,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5101,7 +5113,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5111,11 +5123,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5127,14 +5139,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,11 +5156,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5184,7 +5196,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5200,7 +5212,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,14 +5222,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5226,14 +5238,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,14 +5255,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5259,31 +5271,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,31 +5304,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5325,14 +5337,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5342,14 +5354,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5358,14 +5370,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5379,10 +5391,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5391,14 +5403,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5408,14 +5420,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5424,14 +5436,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5441,14 +5453,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5464,7 +5476,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5474,11 +5486,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5490,14 +5502,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5507,14 +5519,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>323</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5540,14 +5552,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5556,14 +5568,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5573,14 +5585,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q124" s="12">
         <v>328</v>
-      </c>
-      <c t="s" r="Q124" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5606,14 +5618,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5622,14 +5634,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5639,11 +5651,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5655,14 +5667,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>336</v>
+        <v>54</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5672,11 +5684,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5688,14 +5700,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5709,10 +5721,10 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5721,14 +5733,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5738,11 +5750,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5754,14 +5766,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5771,14 +5783,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5787,14 +5799,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5804,11 +5816,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5820,14 +5832,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>347</v>
+        <v>43</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5837,11 +5849,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5870,11 +5882,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5886,14 +5898,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5903,49 +5915,115 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>345</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7302.7749999999996</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>352</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>20</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>148</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>341</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>353</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>16</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>148</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>349</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>350</v>
       </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>351</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>352</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7679.125</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>354</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>355</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>356</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6594,10 +6672,20 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -1073,7 +1073,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:36 PM</t>
+    <t>Wednesday, 9 July, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -311,6 +311,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -425,6 +437,15 @@
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -452,6 +473,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
@@ -593,7 +623,7 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>48.00</t>
+    <t>47.5200</t>
   </si>
   <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
@@ -635,7 +665,7 @@
     <t>57.00</t>
   </si>
   <si>
-    <t>228.0000</t>
+    <t>285.0000</t>
   </si>
   <si>
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
@@ -728,6 +758,12 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -1013,9 +1049,6 @@
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
-    <t>190.00</t>
-  </si>
-  <si>
     <t>190.0000</t>
   </si>
   <si>
@@ -1073,7 +1106,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:37 PM</t>
+    <t>Wednesday, 9 July, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2539,7 +2572,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2549,11 +2582,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2565,14 +2598,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2582,14 +2615,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2598,14 +2631,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2622,7 +2655,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2671,7 +2704,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2681,14 +2714,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2697,14 +2730,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2714,11 +2747,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2730,14 +2763,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2747,11 +2780,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2763,14 +2796,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2780,14 +2813,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2796,14 +2829,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2813,14 +2846,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2829,14 +2862,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2846,14 +2879,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2862,14 +2895,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2879,11 +2912,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2895,14 +2928,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2912,11 +2945,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2928,7 +2961,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2945,14 +2978,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2961,7 +2994,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2978,11 +3011,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2994,14 +3027,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3011,11 +3044,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -3027,14 +3060,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3044,14 +3077,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3060,7 +3093,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3077,11 +3110,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -3093,14 +3126,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3110,14 +3143,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3126,31 +3159,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3166,7 +3199,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3176,7 +3209,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3199,7 +3232,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3232,24 +3265,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3258,14 +3291,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3275,14 +3308,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3291,14 +3324,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3308,14 +3341,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3324,14 +3357,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3341,14 +3374,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3357,14 +3390,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3374,14 +3407,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3390,7 +3423,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3407,11 +3440,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>23</v>
@@ -3423,14 +3456,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3440,14 +3473,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3456,14 +3489,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3473,14 +3506,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3489,14 +3522,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3506,11 +3539,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3522,14 +3555,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3539,14 +3572,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3555,14 +3588,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3572,14 +3605,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3588,14 +3621,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3605,14 +3638,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3621,14 +3654,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3638,14 +3671,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3654,14 +3687,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3671,14 +3704,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3687,14 +3720,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3704,14 +3737,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3720,14 +3753,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3737,11 +3770,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3753,7 +3786,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3770,14 +3803,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3786,14 +3819,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3803,14 +3836,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3819,7 +3852,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3836,11 +3869,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3852,14 +3885,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3869,14 +3902,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3885,14 +3918,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3906,10 +3939,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3918,14 +3951,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3935,14 +3968,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3951,14 +3984,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3968,14 +4001,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3984,7 +4017,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4001,11 +4034,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -4017,14 +4050,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4034,14 +4067,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4050,14 +4083,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4067,14 +4100,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4083,28 +4116,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -4116,14 +4149,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4133,14 +4166,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4149,14 +4182,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4166,14 +4199,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4182,28 +4215,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4215,14 +4248,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4232,11 +4265,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4248,7 +4281,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4265,14 +4298,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4281,14 +4314,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4298,14 +4331,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4314,14 +4347,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4331,11 +4364,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4347,7 +4380,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4364,14 +4397,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4380,14 +4413,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4397,14 +4430,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4413,14 +4446,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4430,14 +4463,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4446,7 +4479,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4463,14 +4496,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4479,31 +4512,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4512,14 +4545,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4529,14 +4562,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4545,7 +4578,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4562,11 +4595,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4578,14 +4611,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4595,14 +4628,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4611,20 +4644,20 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>254</v>
+        <v>54</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4635,7 +4668,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4661,11 +4694,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4677,31 +4710,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4710,28 +4743,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4743,14 +4776,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4760,14 +4793,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4776,14 +4809,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4793,14 +4826,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4809,31 +4842,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>271</v>
+        <v>54</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>115</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4842,31 +4875,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4875,14 +4908,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4892,14 +4925,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4908,14 +4941,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4925,14 +4958,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4941,14 +4974,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4958,14 +4991,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>282</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4974,14 +5007,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4991,14 +5024,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5007,14 +5040,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5024,11 +5057,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5040,14 +5073,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5057,11 +5090,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5073,14 +5106,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5090,14 +5123,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5106,14 +5139,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5123,11 +5156,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5139,14 +5172,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5156,11 +5189,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5172,7 +5205,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5189,14 +5222,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5205,14 +5238,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5222,11 +5255,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5238,14 +5271,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5255,11 +5288,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5271,14 +5304,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5288,14 +5321,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5304,14 +5337,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5321,14 +5354,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5337,31 +5370,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>311</v>
+        <v>171</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5370,28 +5403,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5403,31 +5436,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5436,31 +5469,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>54</v>
+        <v>319</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5469,31 +5502,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5502,28 +5535,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>85</v>
+        <v>326</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5535,31 +5568,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5568,7 +5601,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5581,18 +5614,18 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>62</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>328</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5601,31 +5634,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5634,28 +5667,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>331</v>
+        <v>85</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5667,7 +5700,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5680,18 +5713,18 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5700,31 +5733,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>338</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>340</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5733,31 +5766,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>340</v>
+        <v>54</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5766,31 +5799,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
         <v>344</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5806,21 +5839,21 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>346</v>
+        <v>54</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>341</v>
+        <v>102</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5839,21 +5872,21 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5865,28 +5898,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>20</v>
+        <v>351</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5898,31 +5931,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>346</v>
+        <v>54</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5931,28 +5964,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5964,66 +5997,198 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>349</v>
+        <v>242</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>350</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>7679.125</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>354</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
-        <v>355</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
-        <v>356</v>
-      </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>359</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>20</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>158</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>360</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>361</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>362</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>357</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>158</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>44</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>363</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>20</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>158</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>352</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>364</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>16</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>158</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>360</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>361</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>7878.8050000000003</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>365</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>366</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>367</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6682,10 +6847,30 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -861,6 +861,15 @@
   </si>
   <si>
     <t>4:1</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
   </si>
   <si>
     <t>SULBIN 1.5GM VIAL</t>
@@ -5014,7 +5023,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5031,7 +5040,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5047,7 +5056,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5057,14 +5066,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5073,14 +5082,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5090,11 +5099,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5113,7 +5122,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5130,7 +5139,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5139,14 +5148,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5156,14 +5165,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5172,14 +5181,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5189,11 +5198,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5212,7 +5221,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5245,7 +5254,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5259,7 +5268,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5271,7 +5280,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5288,11 +5297,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5304,14 +5313,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5321,11 +5330,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5361,7 +5370,7 @@
         <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5377,7 +5386,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5387,14 +5396,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5403,14 +5412,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5420,11 +5429,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5443,7 +5452,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5453,14 +5462,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5486,14 +5495,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5502,20 +5511,20 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>54</v>
+        <v>322</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5526,7 +5535,7 @@
         <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5542,7 +5551,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5552,14 +5561,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5575,7 +5584,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5585,14 +5594,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5601,14 +5610,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5618,11 +5627,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>85</v>
@@ -5641,7 +5650,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5651,14 +5660,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5667,14 +5676,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5684,11 +5693,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5707,7 +5716,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5724,7 +5733,7 @@
         <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5750,14 +5759,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>62</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>340</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5766,7 +5775,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5783,14 +5792,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>331</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>85</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5799,14 +5808,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>343</v>
+        <v>54</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5816,14 +5825,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5839,7 +5848,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>54</v>
+        <v>346</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5849,11 +5858,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>102</v>
+        <v>333</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5865,14 +5874,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5882,7 +5891,7 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>348</v>
+        <v>102</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
@@ -5905,7 +5914,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>351</v>
+        <v>85</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5915,11 +5924,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5931,14 +5940,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5948,14 +5957,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5964,14 +5973,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>357</v>
+        <v>54</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5981,14 +5990,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5997,14 +6006,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6014,11 +6023,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6030,14 +6039,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6047,11 +6056,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>360</v>
+        <v>242</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>361</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6070,7 +6079,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6080,14 +6089,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6096,14 +6105,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6113,14 +6122,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>353</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6129,14 +6138,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6146,49 +6155,82 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>7878.8050000000003</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
-        <v>365</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
-        <v>366</v>
-      </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
         <v>367</v>
       </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>16</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>158</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>363</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>364</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>7899.8050000000003</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>368</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>369</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>370</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6867,10 +6909,15 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -1115,7 +1115,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:53 PM</t>
+    <t>Wednesday, 9 July, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>ALZEPIZIL 10MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>107.00</t>
+  </si>
+  <si>
+    <t>107.0000</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -170,12 +182,18 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -587,6 +605,9 @@
     <t>99.9900</t>
   </si>
   <si>
+    <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -803,7 +824,7 @@
     <t>42.00</t>
   </si>
   <si>
-    <t>42.0000</t>
+    <t>84.0000</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -812,9 +833,6 @@
     <t>0:17</t>
   </si>
   <si>
-    <t>141.00</t>
-  </si>
-  <si>
     <t>7.0500</t>
   </si>
   <si>
@@ -1115,7 +1133,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 10:56 PM</t>
+    <t>Wednesday, 9 July, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1905,7 +1923,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1938,7 +1956,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1947,14 +1965,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1964,14 +1982,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1980,7 +1998,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1997,7 +2015,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -2037,7 +2055,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2070,7 +2088,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2086,7 +2104,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2096,11 +2114,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>23</v>
@@ -2112,14 +2130,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2136,7 +2154,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2152,7 +2170,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2169,7 +2187,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2185,7 +2203,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2218,7 +2236,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2235,7 +2253,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2251,7 +2269,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2261,14 +2279,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2277,14 +2295,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2294,14 +2312,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2310,14 +2328,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2327,14 +2345,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2343,14 +2361,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2367,7 +2385,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2383,7 +2401,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2400,7 +2418,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2416,7 +2434,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2426,11 +2444,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2442,14 +2460,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2475,14 +2493,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2492,14 +2510,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2508,14 +2526,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2525,14 +2543,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2541,14 +2559,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2558,14 +2576,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2574,14 +2592,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2591,14 +2609,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2607,14 +2625,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2624,14 +2642,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2640,14 +2658,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2664,7 +2682,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2680,7 +2698,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2690,14 +2708,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2706,14 +2724,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2723,14 +2741,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2739,14 +2757,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2756,14 +2774,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2779,7 +2797,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2789,14 +2807,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2805,14 +2823,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2822,11 +2840,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2838,14 +2856,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2855,14 +2873,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2871,14 +2889,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2904,14 +2922,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2921,11 +2939,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2937,14 +2955,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2954,14 +2972,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2977,7 +2995,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2991,7 +3009,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3036,14 +3054,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3053,14 +3071,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3069,14 +3087,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3086,11 +3104,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>23</v>
@@ -3102,14 +3120,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3119,11 +3137,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -3142,7 +3160,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3152,14 +3170,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3168,7 +3186,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3185,11 +3203,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -3201,14 +3219,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3218,14 +3236,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3234,7 +3252,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3251,14 +3269,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3274,24 +3292,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3300,14 +3318,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3317,14 +3335,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3333,20 +3351,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3357,7 +3375,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3373,7 +3391,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3383,7 +3401,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3406,7 +3424,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3423,7 +3441,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3439,7 +3457,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3472,7 +3490,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3489,7 +3507,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3505,7 +3523,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3515,14 +3533,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3548,14 +3566,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3564,14 +3582,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3581,11 +3599,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3597,14 +3615,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3614,7 +3632,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3637,7 +3655,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3647,14 +3665,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3663,14 +3681,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3680,7 +3698,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3703,7 +3721,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3713,14 +3731,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3729,14 +3747,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3746,14 +3764,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3762,14 +3780,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3779,14 +3797,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3795,14 +3813,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3812,14 +3830,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3828,14 +3846,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3845,14 +3863,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3861,14 +3879,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3878,7 +3896,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3901,7 +3919,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3911,14 +3929,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3927,14 +3945,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3944,14 +3962,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3977,11 +3995,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3993,14 +4011,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4010,14 +4028,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4026,14 +4044,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4047,10 +4065,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4059,14 +4077,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4076,14 +4094,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4092,14 +4110,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4109,14 +4127,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4125,14 +4143,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4142,11 +4160,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -4158,14 +4176,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4175,14 +4193,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4191,14 +4209,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4208,14 +4226,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4224,28 +4242,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4257,14 +4275,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4274,14 +4292,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4290,14 +4308,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4307,14 +4325,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4323,28 +4341,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4356,14 +4374,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4373,7 +4391,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4396,7 +4414,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4406,14 +4424,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4422,14 +4440,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4439,14 +4457,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4455,14 +4473,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4472,7 +4490,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4495,7 +4513,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4505,14 +4523,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4521,14 +4539,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4538,14 +4556,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4554,7 +4572,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4571,14 +4589,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4594,7 +4612,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4608,10 +4626,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4620,14 +4638,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4637,14 +4655,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4653,31 +4671,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4686,14 +4704,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4703,14 +4721,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4719,14 +4737,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4736,11 +4754,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>23</v>
@@ -4752,28 +4770,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4785,14 +4803,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4802,14 +4820,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4818,14 +4836,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4835,14 +4853,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4851,31 +4869,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4884,31 +4902,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4917,14 +4935,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4934,14 +4952,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4950,31 +4968,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4983,31 +5001,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5023,7 +5041,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5033,14 +5051,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5049,14 +5067,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5066,14 +5084,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5082,14 +5100,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5099,14 +5117,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5115,14 +5133,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5132,11 +5150,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5148,14 +5166,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5165,14 +5183,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>297</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5181,14 +5199,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5198,11 +5216,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5214,14 +5232,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5231,11 +5249,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5247,14 +5265,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5264,14 +5282,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5280,14 +5298,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5297,11 +5315,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>118</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5313,14 +5331,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5330,11 +5348,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5386,7 +5404,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5400,10 +5418,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5412,14 +5430,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5429,11 +5447,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5445,7 +5463,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5462,11 +5480,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5478,14 +5496,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>319</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5495,14 +5513,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5511,14 +5529,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>322</v>
+        <v>117</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5528,14 +5546,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>177</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5544,31 +5562,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5577,31 +5595,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>61</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>140</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5610,31 +5628,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5643,31 +5661,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5676,28 +5694,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>242</v>
+        <v>336</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5709,31 +5727,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>338</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5742,31 +5760,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5775,31 +5793,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>343</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5808,31 +5826,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5848,24 +5866,24 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>346</v>
+        <v>28</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
         <v>347</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5881,24 +5899,24 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q132" s="12">
         <v>349</v>
-      </c>
-      <c t="s" r="Q132" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5914,24 +5932,24 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5940,28 +5958,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5973,31 +5991,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6006,28 +6024,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>360</v>
+        <v>91</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6039,28 +6057,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6072,31 +6090,31 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
         <v>364</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6112,24 +6130,24 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>98</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6138,28 +6156,28 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>356</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6171,66 +6189,165 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>7899.8050000000003</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
-        <v>368</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>371</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>366</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>164</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>48</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>372</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>20</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>164</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>361</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>362</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>373</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>16</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>164</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
         <v>369</v>
       </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
         <v>370</v>
       </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="P145" s="13">
+        <v>8119.335</v>
+      </c>
+      <c r="Q145" s="13"/>
+    </row>
+    <row r="146" ht="16.5" customHeight="1">
+      <c t="s" r="A146" s="14">
+        <v>374</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c t="s" r="G146" s="15">
+        <v>375</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c t="s" r="K146" s="17">
+        <v>376</v>
+      </c>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="702">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6914,10 +7031,25 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="K146:Q146"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -617,6 +617,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>L.C PLUS ORAL DROPS 5 ML</t>
   </si>
   <si>
@@ -632,6 +641,15 @@
     <t>143.0000</t>
   </si>
   <si>
+    <t>LERGEBLOCK 1.5% EYE DROPS. 10 ML</t>
+  </si>
+  <si>
+    <t>113.00</t>
+  </si>
+  <si>
+    <t>113.0000</t>
+  </si>
+  <si>
     <t>LEVODEL 500MG 5 F.C. TABS.</t>
   </si>
   <si>
@@ -713,6 +731,12 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -1133,7 +1157,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 11:11 PM</t>
+    <t>Wednesday, 9 July, 2025 11:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3820,7 +3844,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3830,11 +3854,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3846,7 +3870,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3863,7 +3887,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3919,7 +3943,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3929,14 +3953,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3945,14 +3969,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3962,14 +3986,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3978,14 +4002,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3995,14 +4019,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4011,14 +4035,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4028,11 +4052,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -4044,14 +4068,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4061,14 +4085,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4077,14 +4101,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4094,14 +4118,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4110,7 +4134,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4127,14 +4151,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4143,14 +4167,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4160,14 +4184,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4176,14 +4200,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4193,14 +4217,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4209,14 +4233,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4226,14 +4250,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4242,7 +4266,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4259,11 +4283,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4275,7 +4299,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4292,14 +4316,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4308,14 +4332,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4325,11 +4349,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4341,31 +4365,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4374,7 +4398,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4391,14 +4415,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4407,31 +4431,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4447,7 +4471,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4457,11 +4481,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>55</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4480,7 +4504,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4490,11 +4514,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4506,7 +4530,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4523,14 +4547,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4539,14 +4563,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4556,14 +4580,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4572,14 +4596,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4589,11 +4613,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4605,7 +4629,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4622,14 +4646,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4638,14 +4662,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4655,14 +4679,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4688,14 +4712,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4704,14 +4728,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4721,14 +4745,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4737,14 +4761,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4754,14 +4778,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4770,31 +4794,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4803,14 +4827,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4820,14 +4844,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4836,14 +4860,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4853,11 +4877,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4876,13 +4900,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4893,7 +4917,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4909,7 +4933,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4919,14 +4943,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4935,14 +4959,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4952,14 +4976,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4968,31 +4992,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5001,31 +5025,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5034,14 +5058,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5051,14 +5075,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5074,24 +5098,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5100,31 +5124,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5133,14 +5157,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5150,14 +5174,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5166,14 +5190,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5183,14 +5207,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5206,7 +5230,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5216,14 +5240,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5232,14 +5256,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5249,11 +5273,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5265,14 +5289,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5282,14 +5306,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>303</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5305,7 +5329,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5315,11 +5339,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>118</v>
+        <v>287</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5338,7 +5362,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5371,7 +5395,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5388,7 +5412,7 @@
         <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5397,14 +5421,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5414,11 +5438,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>118</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5437,7 +5461,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5447,11 +5471,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>49</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5463,7 +5487,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5480,11 +5504,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5496,14 +5520,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5513,14 +5537,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5529,14 +5553,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5546,11 +5570,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>243</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5562,7 +5586,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5579,11 +5603,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5595,14 +5619,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5612,14 +5636,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>61</v>
+        <v>326</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5628,14 +5652,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5645,14 +5669,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>177</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5661,31 +5685,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5694,31 +5718,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>146</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5727,31 +5751,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>249</v>
+        <v>337</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>216</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5760,7 +5784,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5777,14 +5801,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5793,14 +5817,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>121</v>
+        <v>343</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5810,11 +5834,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>249</v>
+        <v>344</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5826,14 +5850,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5843,14 +5867,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>344</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5859,7 +5883,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5876,14 +5900,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5892,14 +5916,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5909,14 +5933,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>349</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5932,7 +5956,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5942,14 +5966,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5958,14 +5982,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>352</v>
+        <v>28</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5975,14 +5999,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5991,7 +6015,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6008,14 +6032,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>355</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>357</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6024,14 +6048,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6041,14 +6065,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6074,11 +6098,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6090,7 +6114,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6107,14 +6131,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6123,14 +6147,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>366</v>
+        <v>91</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6140,11 +6164,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6163,7 +6187,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>47</v>
+        <v>368</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6173,11 +6197,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>249</v>
+        <v>369</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6189,14 +6213,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6210,10 +6234,10 @@
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6222,14 +6246,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6239,14 +6263,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>48</v>
+        <v>369</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>104</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6255,14 +6279,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6272,11 +6296,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6288,14 +6312,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6305,49 +6329,148 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
+        <v>378</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>379</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>374</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>164</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>48</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>380</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>20</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>164</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>369</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
         <v>370</v>
       </c>
-      <c t="s" r="Q144" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" ht="24.75" customHeight="1">
-      <c r="P145" s="13">
-        <v>8119.335</v>
-      </c>
-      <c r="Q145" s="13"/>
-    </row>
-    <row r="146" ht="16.5" customHeight="1">
-      <c t="s" r="A146" s="14">
-        <v>374</v>
-      </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c t="s" r="G146" s="15">
-        <v>375</v>
-      </c>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="16"/>
-      <c t="s" r="K146" s="17">
-        <v>376</v>
-      </c>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
-      <c r="Q146" s="17"/>
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>381</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>16</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>164</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>377</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>378</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="P148" s="13">
+        <v>8300.8150000000005</v>
+      </c>
+      <c r="Q148" s="13"/>
+    </row>
+    <row r="149" ht="16.5" customHeight="1">
+      <c t="s" r="A149" s="14">
+        <v>382</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c t="s" r="G149" s="15">
+        <v>383</v>
+      </c>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c t="s" r="K149" s="17">
+        <v>384</v>
+      </c>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="702">
+  <mergeCells count="717">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7046,10 +7169,25 @@
     <mergeCell ref="H144:K144"/>
     <mergeCell ref="L144:M144"/>
     <mergeCell ref="N144:O144"/>
-    <mergeCell ref="P145:Q145"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="K146:Q146"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="P148:Q148"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="K149:Q149"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -482,6 +482,15 @@
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -605,6 +614,15 @@
     <t>99.9900</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
   </si>
   <si>
@@ -662,9 +680,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -936,9 +951,6 @@
   </si>
   <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>144.00</t>
   </si>
   <si>
     <t>-72.0000</t>
@@ -3316,7 +3328,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3349,7 +3361,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3366,7 +3378,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3382,24 +3394,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3408,31 +3420,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3448,7 +3460,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3458,14 +3470,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3481,7 +3493,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3498,7 +3510,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3514,7 +3526,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3531,7 +3543,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3547,7 +3559,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3564,7 +3576,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3580,7 +3592,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3597,7 +3609,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3613,7 +3625,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3656,14 +3668,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3679,7 +3691,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3755,7 +3767,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3778,7 +3790,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3788,14 +3800,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3821,14 +3833,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3854,14 +3866,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3877,7 +3889,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3920,11 +3932,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3936,7 +3948,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3953,7 +3965,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -4009,7 +4021,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4035,14 +4047,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4052,14 +4064,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4068,14 +4080,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4108,7 +4120,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4141,7 +4153,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4174,7 +4186,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4184,14 +4196,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4200,7 +4212,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4250,14 +4262,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4283,14 +4295,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4316,14 +4328,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4332,7 +4344,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4349,11 +4361,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4365,7 +4377,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4415,11 +4427,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4431,31 +4443,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4464,14 +4476,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4481,11 +4493,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4497,7 +4509,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4510,18 +4522,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4537,7 +4549,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4547,14 +4559,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4563,14 +4575,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4580,14 +4592,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4613,11 +4625,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4646,14 +4658,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4662,14 +4674,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4679,11 +4691,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4712,14 +4724,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4728,14 +4740,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4745,11 +4757,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4778,14 +4790,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4801,7 +4813,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4811,14 +4823,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4827,14 +4839,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4844,14 +4856,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4860,14 +4872,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4877,11 +4889,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4893,31 +4905,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4926,7 +4938,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4943,14 +4955,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4966,13 +4978,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4983,7 +4995,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4999,7 +5011,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5009,14 +5021,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>55</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5025,14 +5037,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5042,11 +5054,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -5058,14 +5070,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5075,14 +5087,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5091,31 +5103,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>58</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5124,7 +5136,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5137,15 +5149,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5157,31 +5169,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5197,24 +5209,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5223,14 +5235,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5240,14 +5252,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5256,14 +5268,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5273,14 +5285,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5296,7 +5308,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5306,14 +5318,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5322,14 +5334,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5339,11 +5351,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5355,14 +5367,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5372,14 +5384,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5388,14 +5400,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5405,14 +5417,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5421,14 +5433,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5438,11 +5450,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>118</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>119</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5461,7 +5473,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5471,14 +5483,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>158</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q118" s="12">
         <v>315</v>
-      </c>
-      <c t="s" r="Q118" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5504,11 +5516,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>118</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5520,14 +5532,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5537,11 +5549,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5553,14 +5565,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5570,11 +5582,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5586,14 +5598,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5603,11 +5615,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5626,7 +5638,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5636,14 +5648,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>326</v>
+        <v>48</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>327</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5652,14 +5664,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5669,11 +5681,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5709,7 +5721,7 @@
         <v>331</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5725,7 +5737,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>333</v>
+        <v>117</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5735,14 +5747,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5751,14 +5763,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5768,14 +5780,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5784,31 +5796,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>28</v>
+        <v>337</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>340</v>
+        <v>61</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5817,31 +5829,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5850,31 +5862,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5890,24 +5902,24 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>348</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5923,24 +5935,24 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5956,13 +5968,13 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
@@ -5973,7 +5985,7 @@
         <v>352</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5989,24 +6001,24 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>354</v>
+        <v>262</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6015,31 +6027,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>68</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>357</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6048,7 +6060,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6061,18 +6073,18 @@
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6081,31 +6093,31 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q137" s="12">
         <v>361</v>
-      </c>
-      <c t="s" r="Q137" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6127,18 +6139,18 @@
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6147,28 +6159,28 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>91</v>
+        <v>364</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6180,28 +6192,28 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>368</v>
+        <v>28</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>369</v>
+        <v>108</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6213,20 +6225,20 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
@@ -6234,10 +6246,10 @@
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6246,28 +6258,28 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6286,24 +6298,24 @@
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>257</v>
+        <v>373</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>258</v>
+        <v>376</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6312,28 +6324,28 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6352,24 +6364,24 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>374</v>
+        <v>47</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>48</v>
+        <v>262</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6391,15 +6403,15 @@
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c t="s" r="L146" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>16</v>
@@ -6411,66 +6423,132 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>16</v>
+        <v>378</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c t="s" r="L147" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>377</v>
+        <v>48</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>378</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q147" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" ht="24.75" customHeight="1">
-      <c r="P148" s="13">
-        <v>8300.8150000000005</v>
-      </c>
-      <c r="Q148" s="13"/>
-    </row>
-    <row r="149" ht="16.5" customHeight="1">
-      <c t="s" r="A149" s="14">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>384</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>20</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>167</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>373</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>374</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
+        <v>385</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>16</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>167</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>381</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
         <v>382</v>
       </c>
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c t="s" r="G149" s="15">
-        <v>383</v>
-      </c>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="16"/>
-      <c t="s" r="K149" s="17">
-        <v>384</v>
-      </c>
-      <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="17"/>
-      <c r="O149" s="17"/>
-      <c r="P149" s="17"/>
-      <c r="Q149" s="17"/>
+      <c t="s" r="Q149" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="P150" s="13">
+        <v>8414.3349999999991</v>
+      </c>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" ht="16.5" customHeight="1">
+      <c t="s" r="A151" s="14">
+        <v>386</v>
+      </c>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c t="s" r="G151" s="15">
+        <v>387</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c t="s" r="K151" s="17">
+        <v>388</v>
+      </c>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="717">
+  <mergeCells count="727">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7184,10 +7262,20 @@
     <mergeCell ref="H147:K147"/>
     <mergeCell ref="L147:M147"/>
     <mergeCell ref="N147:O147"/>
-    <mergeCell ref="P148:Q148"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="K149:Q149"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="K151:Q151"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>CIPAZOLE FORT 1 GM 2 TAB.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>COLCHICINE 500MCG 100 TAB</t>
   </si>
   <si>
@@ -497,9 +506,6 @@
     <t>54.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -624,6 +630,15 @@
   </si>
   <si>
     <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
   </si>
   <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
@@ -2701,7 +2716,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2767,7 +2782,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2784,7 +2799,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2800,7 +2815,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2876,14 +2891,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2909,7 +2924,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2932,7 +2947,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2998,7 +3013,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3008,14 +3023,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3064,7 +3079,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3097,7 +3112,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3111,7 +3126,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3123,7 +3138,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3173,11 +3188,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3206,11 +3221,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -3229,7 +3244,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3288,7 +3303,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3321,7 +3336,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3338,11 +3353,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3361,7 +3376,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3394,7 +3409,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3408,10 +3423,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3420,31 +3435,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3453,31 +3468,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3536,14 +3551,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3569,14 +3584,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3767,14 +3782,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3790,7 +3805,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3800,11 +3815,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3833,14 +3848,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3866,14 +3881,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3882,14 +3897,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3899,14 +3914,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3932,11 +3947,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3948,14 +3963,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3965,14 +3980,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3988,7 +4003,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4031,11 +4046,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4047,7 +4062,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4064,11 +4079,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4080,14 +4095,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4097,14 +4112,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4113,14 +4128,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4130,14 +4145,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4146,14 +4161,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4163,14 +4178,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4186,7 +4201,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4219,7 +4234,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4229,14 +4244,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4252,7 +4267,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4262,14 +4277,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4278,7 +4293,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4295,14 +4310,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4311,14 +4326,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4328,14 +4343,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4344,14 +4359,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4361,14 +4376,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4377,14 +4392,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4394,14 +4409,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4410,7 +4425,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4427,11 +4442,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4443,7 +4458,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4460,14 +4475,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4476,14 +4491,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4493,11 +4508,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4509,31 +4524,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4542,14 +4557,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4559,11 +4574,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4575,7 +4590,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4588,18 +4603,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4615,7 +4630,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4625,14 +4640,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4641,14 +4656,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4658,14 +4673,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4691,11 +4706,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4707,14 +4722,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4724,14 +4739,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4740,14 +4755,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4757,11 +4772,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4773,14 +4788,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4790,14 +4805,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4806,14 +4821,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4823,11 +4838,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4839,14 +4854,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4856,14 +4871,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4879,7 +4894,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4889,14 +4904,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4905,14 +4920,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4922,14 +4937,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4938,14 +4953,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4955,11 +4970,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4971,31 +4986,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5004,7 +5019,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -5021,14 +5036,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5044,13 +5059,13 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -5061,7 +5076,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5077,7 +5092,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5087,14 +5102,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>55</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5103,14 +5118,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>286</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5120,11 +5135,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>23</v>
@@ -5136,14 +5151,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5153,14 +5168,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5169,31 +5184,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>28</v>
+        <v>291</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>58</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5202,7 +5217,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5215,15 +5230,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5235,31 +5250,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5275,24 +5290,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5301,14 +5316,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>99</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5318,14 +5333,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5334,14 +5349,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5351,14 +5366,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5374,7 +5389,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5384,14 +5399,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5400,14 +5415,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5417,11 +5432,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5433,14 +5448,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5450,14 +5465,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5466,14 +5481,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5483,14 +5498,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>315</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5499,14 +5514,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5516,11 +5531,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>118</v>
+        <v>316</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>119</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5532,14 +5547,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5549,14 +5564,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5565,7 +5580,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5582,11 +5597,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5598,14 +5613,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5615,11 +5630,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5638,7 +5653,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5648,11 +5663,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>48</v>
+        <v>326</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5664,14 +5679,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5681,11 +5696,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5697,14 +5712,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5714,14 +5729,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>330</v>
+        <v>48</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>331</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5730,14 +5745,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5747,11 +5762,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5763,7 +5778,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5780,14 +5795,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5796,14 +5811,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>337</v>
+        <v>120</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5813,14 +5828,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5829,14 +5844,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5846,14 +5861,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5862,31 +5877,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>28</v>
+        <v>342</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>344</v>
+        <v>61</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5895,31 +5910,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>146</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5928,31 +5943,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>227</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5961,31 +5976,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>28</v>
+        <v>352</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>352</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5994,31 +6009,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6027,31 +6042,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6060,31 +6075,31 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>358</v>
+        <v>267</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6093,31 +6108,31 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>68</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>361</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6139,18 +6154,18 @@
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6159,31 +6174,31 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>364</v>
+        <v>28</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>365</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6192,7 +6207,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6205,18 +6220,18 @@
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>108</v>
+        <v>356</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6232,17 +6247,17 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
@@ -6265,21 +6280,21 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>372</v>
+        <v>28</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>373</v>
+        <v>111</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6291,31 +6306,31 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6324,28 +6339,28 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6357,31 +6372,31 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>262</v>
+        <v>378</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>263</v>
+        <v>381</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6390,28 +6405,28 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c t="s" r="L146" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>16</v>
@@ -6423,31 +6438,31 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>378</v>
+        <v>47</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c t="s" r="L147" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q147" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" ht="24.75" customHeight="1">
@@ -6456,7 +6471,7 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -6469,15 +6484,15 @@
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c t="s" r="L148" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c t="s" r="Q148" s="12">
         <v>16</v>
@@ -6489,66 +6504,132 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>16</v>
+        <v>383</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c t="s" r="L149" s="10">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>381</v>
+        <v>48</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>382</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q149" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" ht="24.75" customHeight="1">
-      <c r="P150" s="13">
-        <v>8414.3349999999991</v>
-      </c>
-      <c r="Q150" s="13"/>
-    </row>
-    <row r="151" ht="16.5" customHeight="1">
-      <c t="s" r="A151" s="14">
+      <c r="A150" s="7">
+        <v>144</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c t="s" r="C150" s="8">
+        <v>389</v>
+      </c>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c t="s" r="H150" s="9">
+        <v>20</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c t="s" r="L150" s="10">
+        <v>169</v>
+      </c>
+      <c r="M150" s="10"/>
+      <c t="s" r="N150" s="8">
+        <v>378</v>
+      </c>
+      <c r="O150" s="8"/>
+      <c t="s" r="P150" s="11">
+        <v>379</v>
+      </c>
+      <c t="s" r="Q150" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1">
+      <c r="A151" s="7">
+        <v>145</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c t="s" r="C151" s="8">
+        <v>390</v>
+      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c t="s" r="H151" s="9">
+        <v>16</v>
+      </c>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c t="s" r="L151" s="10">
+        <v>169</v>
+      </c>
+      <c r="M151" s="10"/>
+      <c t="s" r="N151" s="8">
         <v>386</v>
       </c>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c t="s" r="G151" s="15">
+      <c r="O151" s="8"/>
+      <c t="s" r="P151" s="11">
         <v>387</v>
       </c>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="16"/>
-      <c t="s" r="K151" s="17">
-        <v>388</v>
-      </c>
-      <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
-      <c r="N151" s="17"/>
-      <c r="O151" s="17"/>
-      <c r="P151" s="17"/>
-      <c r="Q151" s="17"/>
+      <c t="s" r="Q151" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" ht="25.5" customHeight="1">
+      <c r="P152" s="13">
+        <v>8681.3349999999991</v>
+      </c>
+      <c r="Q152" s="13"/>
+    </row>
+    <row r="153" ht="16.5" customHeight="1">
+      <c t="s" r="A153" s="14">
+        <v>391</v>
+      </c>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c t="s" r="G153" s="15">
+        <v>392</v>
+      </c>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="16"/>
+      <c t="s" r="K153" s="17">
+        <v>393</v>
+      </c>
+      <c r="L153" s="17"/>
+      <c r="M153" s="17"/>
+      <c r="N153" s="17"/>
+      <c r="O153" s="17"/>
+      <c r="P153" s="17"/>
+      <c r="Q153" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="727">
+  <mergeCells count="737">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7272,10 +7353,20 @@
     <mergeCell ref="H149:K149"/>
     <mergeCell ref="L149:M149"/>
     <mergeCell ref="N149:O149"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="K151:Q151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="H151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="P152:Q152"/>
+    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="K153:Q153"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -632,6 +632,15 @@
     <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
   </si>
   <si>
+    <t>GUAVA SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -768,12 +777,6 @@
   </si>
   <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
   </si>
   <si>
     <t>NEURONTIN 300MG 20 CAPS</t>
@@ -3937,7 +3940,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3970,7 +3973,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3987,7 +3990,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -4020,7 +4023,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4036,7 +4039,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4046,11 +4049,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4062,7 +4065,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4079,7 +4082,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -4168,7 +4171,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4178,14 +4181,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4194,14 +4197,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4211,14 +4214,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4234,7 +4237,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4244,14 +4247,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4300,7 +4303,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4310,14 +4313,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4326,14 +4329,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4343,14 +4346,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4359,14 +4362,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4376,14 +4379,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4399,7 +4402,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4409,14 +4412,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4425,7 +4428,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4442,11 +4445,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4458,14 +4461,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4475,14 +4478,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>49</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4491,14 +4494,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4508,14 +4511,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4524,14 +4527,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4541,14 +4544,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4557,14 +4560,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4574,14 +4577,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4590,7 +4593,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4603,15 +4606,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>23</v>
@@ -4623,28 +4626,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4656,14 +4659,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4673,14 +4676,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4696,7 +4699,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4706,11 +4709,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4722,14 +4725,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4739,14 +4742,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4755,14 +4758,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4772,14 +4775,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4788,7 +4791,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4805,14 +4808,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4828,7 +4831,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4838,14 +4841,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4854,14 +4857,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4871,11 +4874,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4887,14 +4890,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4904,11 +4907,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4920,14 +4923,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4937,14 +4940,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4953,14 +4956,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4970,14 +4973,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4986,14 +4989,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5003,11 +5006,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>61</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -5019,14 +5022,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5036,11 +5039,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -5065,18 +5068,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5085,7 +5088,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5098,15 +5101,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5118,14 +5121,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5135,14 +5138,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5151,14 +5154,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5168,14 +5171,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5184,14 +5187,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5201,14 +5204,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5217,14 +5220,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5234,14 +5237,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>58</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5250,7 +5253,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5263,15 +5266,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5283,7 +5286,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5300,11 +5303,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5316,31 +5319,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5349,14 +5352,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5366,14 +5369,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5382,14 +5385,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5399,11 +5402,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>128</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>23</v>
@@ -5415,14 +5418,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5432,14 +5435,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5448,14 +5451,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5465,14 +5468,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5481,14 +5484,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5498,14 +5501,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5521,7 +5524,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5531,11 +5534,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5547,14 +5550,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5564,14 +5567,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>320</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5580,14 +5583,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5597,14 +5600,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5620,7 +5623,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5630,11 +5633,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>323</v>
+        <v>121</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>324</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5646,14 +5649,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5663,11 +5666,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5679,14 +5682,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5696,11 +5699,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>183</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5712,7 +5715,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5729,11 +5732,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>48</v>
+        <v>330</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5752,7 +5755,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5762,11 +5765,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5778,7 +5781,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5795,14 +5798,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5811,14 +5814,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5828,14 +5831,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5851,7 +5854,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5861,11 +5864,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>339</v>
+        <v>182</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5877,14 +5880,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5894,14 +5897,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5910,14 +5913,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5927,14 +5930,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5943,31 +5946,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>28</v>
+        <v>346</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5976,14 +5979,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>352</v>
+        <v>28</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5993,14 +5996,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6009,14 +6012,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>353</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6026,14 +6029,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6049,7 +6052,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6059,11 +6062,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>91</v>
@@ -6075,14 +6078,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6092,14 +6095,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>268</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6115,7 +6118,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6125,11 +6128,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>360</v>
+        <v>268</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6141,14 +6144,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6158,14 +6161,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6174,7 +6177,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6191,14 +6194,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>68</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>366</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6207,7 +6210,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6224,14 +6227,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>357</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>91</v>
+        <v>367</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6247,7 +6250,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>369</v>
+        <v>28</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6257,14 +6260,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6273,14 +6276,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6290,11 +6293,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>111</v>
+        <v>357</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6306,14 +6309,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6323,11 +6326,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>374</v>
+        <v>111</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6339,14 +6342,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>377</v>
+        <v>91</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6356,11 +6359,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6372,14 +6375,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6389,14 +6392,14 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6405,14 +6408,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>383</v>
+        <v>28</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6422,14 +6425,14 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c t="s" r="Q146" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
@@ -6438,14 +6441,14 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>47</v>
+        <v>384</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6455,11 +6458,11 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>268</v>
+        <v>380</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>16</v>
@@ -6478,7 +6481,7 @@
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -6488,11 +6491,11 @@
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q148" s="12">
         <v>16</v>
@@ -6504,14 +6507,14 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
@@ -6521,14 +6524,14 @@
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>48</v>
+        <v>387</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c t="s" r="Q149" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" ht="24.75" customHeight="1">
@@ -6544,7 +6547,7 @@
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c t="s" r="H150" s="9">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
@@ -6554,14 +6557,14 @@
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>378</v>
+        <v>48</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
-        <v>379</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q150" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" ht="25.5" customHeight="1">
@@ -6577,7 +6580,7 @@
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c t="s" r="H151" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
@@ -6587,49 +6590,82 @@
       </c>
       <c r="M151" s="10"/>
       <c t="s" r="N151" s="8">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="O151" s="8"/>
       <c t="s" r="P151" s="11">
+        <v>380</v>
+      </c>
+      <c t="s" r="Q151" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" ht="25.5" customHeight="1">
+      <c r="A152" s="7">
+        <v>146</v>
+      </c>
+      <c r="B152" s="7"/>
+      <c t="s" r="C152" s="8">
+        <v>391</v>
+      </c>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c t="s" r="H152" s="9">
+        <v>16</v>
+      </c>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c t="s" r="L152" s="10">
+        <v>169</v>
+      </c>
+      <c r="M152" s="10"/>
+      <c t="s" r="N152" s="8">
         <v>387</v>
       </c>
-      <c t="s" r="Q151" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" ht="25.5" customHeight="1">
-      <c r="P152" s="13">
-        <v>8681.3349999999991</v>
-      </c>
-      <c r="Q152" s="13"/>
-    </row>
-    <row r="153" ht="16.5" customHeight="1">
-      <c t="s" r="A153" s="14">
-        <v>391</v>
-      </c>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c t="s" r="G153" s="15">
+      <c r="O152" s="8"/>
+      <c t="s" r="P152" s="11">
+        <v>388</v>
+      </c>
+      <c t="s" r="Q152" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" ht="24.75" customHeight="1">
+      <c r="P153" s="13">
+        <v>8736.3349999999991</v>
+      </c>
+      <c r="Q153" s="13"/>
+    </row>
+    <row r="154" ht="16.5" customHeight="1">
+      <c t="s" r="A154" s="14">
         <v>392</v>
       </c>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="16"/>
-      <c t="s" r="K153" s="17">
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c t="s" r="G154" s="15">
         <v>393</v>
       </c>
-      <c r="L153" s="17"/>
-      <c r="M153" s="17"/>
-      <c r="N153" s="17"/>
-      <c r="O153" s="17"/>
-      <c r="P153" s="17"/>
-      <c r="Q153" s="17"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="16"/>
+      <c t="s" r="K154" s="17">
+        <v>394</v>
+      </c>
+      <c r="L154" s="17"/>
+      <c r="M154" s="17"/>
+      <c r="N154" s="17"/>
+      <c r="O154" s="17"/>
+      <c r="P154" s="17"/>
+      <c r="Q154" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="737">
+  <mergeCells count="742">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7363,10 +7399,15 @@
     <mergeCell ref="H151:K151"/>
     <mergeCell ref="L151:M151"/>
     <mergeCell ref="N151:O151"/>
-    <mergeCell ref="P152:Q152"/>
-    <mergeCell ref="A153:F153"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="K153:Q153"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="H152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="K154:Q154"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -467,12 +467,12 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -1187,7 +1187,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 11:12 PM</t>
+    <t>Wednesday, 9 July, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3247,7 +3247,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3257,14 +3257,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -6635,7 +6635,7 @@
     </row>
     <row r="153" ht="24.75" customHeight="1">
       <c r="P153" s="13">
-        <v>8736.3349999999991</v>
+        <v>8752.1749999999993</v>
       </c>
       <c r="Q153" s="13"/>
     </row>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -1187,7 +1187,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 11:13 PM</t>
+    <t>Wednesday, 9 July, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -257,12 +266,6 @@
     <t>CAVENTOL SYRUP 120 ML</t>
   </si>
   <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
     <t>CECLOR 125MG/5ML SUSP. 75ML</t>
   </si>
   <si>
@@ -752,6 +755,15 @@
     <t>MEGALASE 30 TAB</t>
   </si>
   <si>
+    <t>MESOCEPT 50/5MG I.M. AMP</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
     <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
@@ -1112,7 +1124,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1187,7 +1199,13 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 11:14 PM</t>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 9 July, 2025 11:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2389,7 +2407,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2399,14 +2417,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2472,7 +2490,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2488,7 +2506,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2498,11 +2516,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2580,14 +2598,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2630,14 +2648,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2646,14 +2664,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2686,7 +2704,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2712,7 +2730,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2729,14 +2747,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2745,14 +2763,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2795,11 +2813,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2828,14 +2846,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2894,11 +2912,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2927,14 +2945,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2943,14 +2961,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2960,11 +2978,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2976,14 +2994,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2993,11 +3011,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -3009,14 +3027,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3026,14 +3044,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3059,14 +3077,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3075,14 +3093,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3125,11 +3143,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3141,14 +3159,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3158,11 +3176,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3174,14 +3192,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3191,14 +3209,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3207,14 +3225,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3224,11 +3242,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -3247,7 +3265,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3273,14 +3291,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3290,14 +3308,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3306,7 +3324,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3323,14 +3341,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3339,7 +3357,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3356,14 +3374,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3389,11 +3407,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>23</v>
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3422,11 +3440,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3438,14 +3456,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3455,14 +3473,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3471,31 +3489,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3504,31 +3522,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3537,14 +3555,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3554,14 +3572,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3742,7 +3760,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3752,14 +3770,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3768,14 +3786,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3785,14 +3803,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3851,11 +3869,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3867,14 +3885,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3917,14 +3935,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3940,7 +3958,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3983,11 +4001,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4016,14 +4034,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4032,7 +4050,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4082,11 +4100,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4098,7 +4116,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4115,11 +4133,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4131,7 +4149,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4148,11 +4166,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4164,7 +4182,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4181,11 +4199,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4214,14 +4232,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4237,7 +4255,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4247,14 +4265,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4263,14 +4281,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4280,14 +4298,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4313,14 +4331,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4329,14 +4347,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4346,14 +4364,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4362,14 +4380,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4379,14 +4397,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4402,7 +4420,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4412,14 +4430,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4428,14 +4446,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4445,14 +4463,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4468,7 +4486,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4478,11 +4496,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4501,7 +4519,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4511,14 +4529,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4534,7 +4552,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4544,14 +4562,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4560,7 +4578,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4577,14 +4595,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4593,14 +4611,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4610,11 +4628,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>23</v>
@@ -4626,31 +4644,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4659,14 +4677,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4676,11 +4694,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4705,18 +4723,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4725,14 +4743,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4742,14 +4760,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4765,7 +4783,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4775,14 +4793,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4791,7 +4809,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4808,7 +4826,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4831,7 +4849,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4841,14 +4859,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4857,14 +4875,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4874,7 +4892,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4897,7 +4915,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4907,14 +4925,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4923,14 +4941,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4940,11 +4958,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4956,14 +4974,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4973,14 +4991,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4989,14 +5007,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5006,14 +5024,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>61</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5029,7 +5047,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5039,14 +5057,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5062,7 +5080,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5072,11 +5090,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -5088,31 +5106,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5138,14 +5156,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5154,31 +5172,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5187,14 +5205,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5204,14 +5222,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>289</v>
+        <v>55</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5220,14 +5238,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>292</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5237,11 +5255,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -5253,14 +5271,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5270,14 +5288,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5286,31 +5304,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>58</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5319,7 +5337,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5332,15 +5350,15 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5352,31 +5370,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5385,31 +5403,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5425,7 +5443,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>308</v>
+        <v>100</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5435,14 +5453,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>128</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5458,7 +5476,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5468,14 +5486,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5484,14 +5502,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5501,14 +5519,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5517,14 +5535,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5534,11 +5552,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5557,7 +5575,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5574,7 +5592,7 @@
         <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5590,7 +5608,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5600,14 +5618,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>321</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5616,14 +5634,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5633,11 +5651,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>122</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5656,7 +5674,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5666,14 +5684,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q123" s="12">
         <v>325</v>
-      </c>
-      <c t="s" r="Q123" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5699,11 +5717,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>327</v>
+        <v>122</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5715,14 +5733,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5732,11 +5750,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5748,14 +5766,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5765,11 +5783,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5781,14 +5799,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5798,11 +5816,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5821,7 +5839,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5831,14 +5849,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>336</v>
+        <v>48</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>337</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5847,14 +5865,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5864,11 +5882,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>182</v>
+        <v>337</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5904,7 +5922,7 @@
         <v>341</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5920,7 +5938,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5930,14 +5948,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>344</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5946,14 +5964,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5963,14 +5981,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5979,31 +5997,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>350</v>
+        <v>61</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6012,31 +6030,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6045,31 +6063,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>235</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6085,24 +6103,24 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>28</v>
+        <v>357</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>358</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6118,24 +6136,24 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6151,13 +6169,13 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
@@ -6168,7 +6186,7 @@
         <v>362</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6184,24 +6202,24 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6210,31 +6228,31 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>68</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>367</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6243,7 +6261,7 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6256,18 +6274,18 @@
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6276,31 +6294,31 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q142" s="12">
         <v>371</v>
-      </c>
-      <c t="s" r="Q142" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6322,18 +6340,18 @@
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>111</v>
+        <v>361</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6342,28 +6360,28 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6375,28 +6393,28 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>379</v>
+        <v>112</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>16</v>
@@ -6408,20 +6426,20 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c t="s" r="L146" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
@@ -6429,10 +6447,10 @@
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c t="s" r="Q146" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
@@ -6441,28 +6459,28 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c t="s" r="L147" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>16</v>
@@ -6481,24 +6499,24 @@
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c t="s" r="L148" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>268</v>
+        <v>383</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c t="s" r="Q148" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149" ht="25.5" customHeight="1">
@@ -6507,28 +6525,28 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c t="s" r="L149" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c t="s" r="Q149" s="12">
         <v>16</v>
@@ -6547,24 +6565,24 @@
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c t="s" r="H150" s="9">
-        <v>384</v>
+        <v>47</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c t="s" r="L150" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q150" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" ht="25.5" customHeight="1">
@@ -6586,15 +6604,15 @@
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c t="s" r="L151" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M151" s="10"/>
       <c t="s" r="N151" s="8">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="O151" s="8"/>
       <c t="s" r="P151" s="11">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c t="s" r="Q151" s="12">
         <v>16</v>
@@ -6606,66 +6624,165 @@
       </c>
       <c r="B152" s="7"/>
       <c t="s" r="C152" s="8">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c t="s" r="H152" s="9">
-        <v>16</v>
+        <v>388</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c t="s" r="L152" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M152" s="10"/>
       <c t="s" r="N152" s="8">
-        <v>387</v>
+        <v>48</v>
       </c>
       <c r="O152" s="8"/>
       <c t="s" r="P152" s="11">
-        <v>388</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q152" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" ht="24.75" customHeight="1">
-      <c r="P153" s="13">
-        <v>8752.1749999999993</v>
-      </c>
-      <c r="Q153" s="13"/>
-    </row>
-    <row r="154" ht="16.5" customHeight="1">
-      <c t="s" r="A154" s="14">
+      <c r="A153" s="7">
+        <v>147</v>
+      </c>
+      <c r="B153" s="7"/>
+      <c t="s" r="C153" s="8">
+        <v>394</v>
+      </c>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c t="s" r="H153" s="9">
+        <v>20</v>
+      </c>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c t="s" r="L153" s="10">
+        <v>170</v>
+      </c>
+      <c r="M153" s="10"/>
+      <c t="s" r="N153" s="8">
+        <v>383</v>
+      </c>
+      <c r="O153" s="8"/>
+      <c t="s" r="P153" s="11">
+        <v>384</v>
+      </c>
+      <c t="s" r="Q153" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" ht="25.5" customHeight="1">
+      <c r="A154" s="7">
+        <v>148</v>
+      </c>
+      <c r="B154" s="7"/>
+      <c t="s" r="C154" s="8">
+        <v>395</v>
+      </c>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c t="s" r="H154" s="9">
+        <v>16</v>
+      </c>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c t="s" r="L154" s="10">
+        <v>170</v>
+      </c>
+      <c r="M154" s="10"/>
+      <c t="s" r="N154" s="8">
+        <v>391</v>
+      </c>
+      <c r="O154" s="8"/>
+      <c t="s" r="P154" s="11">
         <v>392</v>
       </c>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c t="s" r="G154" s="15">
-        <v>393</v>
-      </c>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="16"/>
-      <c t="s" r="K154" s="17">
-        <v>394</v>
-      </c>
-      <c r="L154" s="17"/>
-      <c r="M154" s="17"/>
-      <c r="N154" s="17"/>
-      <c r="O154" s="17"/>
-      <c r="P154" s="17"/>
-      <c r="Q154" s="17"/>
+      <c t="s" r="Q154" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" ht="24.75" customHeight="1">
+      <c r="A155" s="7">
+        <v>149</v>
+      </c>
+      <c r="B155" s="7"/>
+      <c t="s" r="C155" s="8">
+        <v>396</v>
+      </c>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c t="s" r="H155" s="9">
+        <v>397</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c t="s" r="L155" s="10">
+        <v>170</v>
+      </c>
+      <c r="M155" s="10"/>
+      <c t="s" r="N155" s="8">
+        <v>358</v>
+      </c>
+      <c r="O155" s="8"/>
+      <c t="s" r="P155" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q155" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" ht="25.5" customHeight="1">
+      <c r="P156" s="13">
+        <v>8861.6749999999993</v>
+      </c>
+      <c r="Q156" s="13"/>
+    </row>
+    <row r="157" ht="16.5" customHeight="1">
+      <c t="s" r="A157" s="14">
+        <v>398</v>
+      </c>
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c t="s" r="G157" s="15">
+        <v>399</v>
+      </c>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="16"/>
+      <c t="s" r="K157" s="17">
+        <v>400</v>
+      </c>
+      <c r="L157" s="17"/>
+      <c r="M157" s="17"/>
+      <c r="N157" s="17"/>
+      <c r="O157" s="17"/>
+      <c r="P157" s="17"/>
+      <c r="Q157" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="742">
+  <mergeCells count="757">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7404,10 +7521,25 @@
     <mergeCell ref="H152:K152"/>
     <mergeCell ref="L152:M152"/>
     <mergeCell ref="N152:O152"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="K154:Q154"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:G153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="P156:Q156"/>
+    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="G157:I157"/>
+    <mergeCell ref="K157:Q157"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -1205,7 +1205,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 11:15 PM</t>
+    <t>Wednesday, 9 July, 2025 11:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -188,7 +188,7 @@
     <t>141.00</t>
   </si>
   <si>
-    <t>46.5300</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
@@ -1205,7 +1205,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 11:17 PM</t>
+    <t>Wednesday, 9 July, 2025 11:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2242,7 +2242,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2259,7 +2259,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -6752,7 +6752,7 @@
     </row>
     <row r="156" ht="25.5" customHeight="1">
       <c r="P156" s="13">
-        <v>8861.6749999999993</v>
+        <v>8815.1450000000004</v>
       </c>
       <c r="Q156" s="13"/>
     </row>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -317,6 +317,21 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CIDAMEX 250MG 20 TAB.</t>
   </si>
   <si>
@@ -374,9 +389,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -521,9 +533,6 @@
     <t>FATROXIM 550 MG 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>360.00</t>
   </si>
   <si>
@@ -1205,7 +1214,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 11:22 PM</t>
+    <t>Wednesday, 9 July, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2704,21 +2713,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2763,7 +2772,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2846,11 +2855,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2879,14 +2888,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2968,7 +2977,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3011,11 +3020,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3143,14 +3152,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3176,11 +3185,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3209,11 +3218,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3225,7 +3234,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3258,7 +3267,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3275,11 +3284,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3308,14 +3317,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3357,7 +3366,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3390,7 +3399,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3423,7 +3432,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3473,11 +3482,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3506,14 +3515,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3522,20 +3531,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3546,7 +3555,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3562,24 +3571,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3595,7 +3604,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3605,14 +3614,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3628,7 +3637,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3645,7 +3654,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3661,7 +3670,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3678,7 +3687,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3694,7 +3703,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3711,7 +3720,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3727,7 +3736,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3744,7 +3753,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3760,7 +3769,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3803,14 +3812,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3826,7 +3835,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3902,7 +3911,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3925,7 +3934,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3942,7 +3951,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3958,7 +3967,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4001,14 +4010,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -4024,7 +4033,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4057,7 +4066,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4074,7 +4083,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4107,7 +4116,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4123,7 +4132,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4133,11 +4142,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4149,7 +4158,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4166,7 +4175,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4255,7 +4264,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4321,7 +4330,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4364,14 +4373,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4387,7 +4396,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4397,14 +4406,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4430,14 +4439,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4446,14 +4455,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4463,14 +4472,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4486,7 +4495,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4496,14 +4505,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4512,7 +4521,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4529,11 +4538,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4545,14 +4554,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4562,14 +4571,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4585,7 +4594,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4595,11 +4604,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4611,14 +4620,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4628,14 +4637,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4644,14 +4653,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4661,14 +4670,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4694,14 +4703,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4710,7 +4719,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4723,15 +4732,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>23</v>
@@ -4743,28 +4752,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4776,14 +4785,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4793,14 +4802,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4809,14 +4818,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4826,11 +4835,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4849,7 +4858,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4863,10 +4872,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4875,14 +4884,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4892,14 +4901,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4908,7 +4917,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4925,14 +4934,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4941,14 +4950,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4958,14 +4967,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4981,7 +4990,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -5014,7 +5023,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5047,7 +5056,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5057,14 +5066,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5073,14 +5082,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5090,14 +5099,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5106,14 +5115,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5123,11 +5132,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -5139,14 +5148,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5156,11 +5165,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>23</v>
@@ -5172,7 +5181,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5185,18 +5194,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>286</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5218,15 +5227,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>55</v>
+        <v>288</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5238,14 +5247,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5255,14 +5264,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5278,7 +5287,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5295,7 +5304,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5311,7 +5320,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5321,14 +5330,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5344,7 +5353,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>28</v>
+        <v>299</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5354,14 +5363,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5383,7 +5392,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5416,7 +5425,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5443,24 +5452,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5469,14 +5478,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5486,14 +5495,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5502,14 +5511,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5519,11 +5528,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>23</v>
@@ -5535,14 +5544,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5552,14 +5561,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5575,7 +5584,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5592,7 +5601,7 @@
         <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5608,7 +5617,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5618,14 +5627,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5634,14 +5643,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5651,11 +5660,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5674,7 +5683,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5684,14 +5693,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5707,7 +5716,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5717,14 +5726,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>123</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5733,14 +5742,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5750,11 +5759,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>328</v>
+        <v>126</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5773,7 +5782,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5806,7 +5815,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5820,7 +5829,7 @@
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>184</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5832,7 +5841,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5849,11 +5858,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>48</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5865,14 +5874,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5882,11 +5891,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>337</v>
+        <v>48</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5922,7 +5931,7 @@
         <v>341</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5938,7 +5947,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5948,14 +5957,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>183</v>
+        <v>343</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5964,14 +5973,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5981,11 +5990,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -6004,7 +6013,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>347</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6014,14 +6023,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>61</v>
+        <v>347</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
         <v>348</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6047,14 +6056,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>351</v>
+        <v>61</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6063,20 +6072,20 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>28</v>
+        <v>353</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
@@ -6087,7 +6096,7 @@
         <v>355</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6103,24 +6112,24 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>357</v>
+        <v>28</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>150</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6136,24 +6145,24 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6162,28 +6171,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>362</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>92</v>
@@ -6202,24 +6211,24 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6228,28 +6237,28 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6268,13 +6277,13 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
@@ -6285,7 +6294,7 @@
         <v>369</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6307,18 +6316,18 @@
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>371</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6327,7 +6336,7 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6340,18 +6349,18 @@
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>92</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6360,31 +6369,31 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>374</v>
+        <v>28</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6400,21 +6409,21 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>16</v>
@@ -6426,24 +6435,24 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c t="s" r="L146" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>379</v>
+        <v>117</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
@@ -6466,21 +6475,21 @@
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c t="s" r="L147" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>16</v>
@@ -6492,31 +6501,31 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>28</v>
+        <v>385</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c t="s" r="L148" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c t="s" r="Q148" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" ht="25.5" customHeight="1">
@@ -6525,31 +6534,31 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>388</v>
+        <v>28</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c t="s" r="L149" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c t="s" r="Q149" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" ht="24.75" customHeight="1">
@@ -6558,28 +6567,28 @@
       </c>
       <c r="B150" s="7"/>
       <c t="s" r="C150" s="8">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c t="s" r="H150" s="9">
-        <v>47</v>
+        <v>391</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c t="s" r="L150" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>272</v>
+        <v>386</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
-        <v>273</v>
+        <v>387</v>
       </c>
       <c t="s" r="Q150" s="12">
         <v>16</v>
@@ -6591,28 +6600,28 @@
       </c>
       <c r="B151" s="7"/>
       <c t="s" r="C151" s="8">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c t="s" r="H151" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c t="s" r="L151" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M151" s="10"/>
       <c t="s" r="N151" s="8">
-        <v>391</v>
+        <v>275</v>
       </c>
       <c r="O151" s="8"/>
       <c t="s" r="P151" s="11">
-        <v>392</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q151" s="12">
         <v>16</v>
@@ -6631,24 +6640,24 @@
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c t="s" r="H152" s="9">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c t="s" r="L152" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M152" s="10"/>
       <c t="s" r="N152" s="8">
-        <v>48</v>
+        <v>394</v>
       </c>
       <c r="O152" s="8"/>
       <c t="s" r="P152" s="11">
-        <v>105</v>
+        <v>395</v>
       </c>
       <c t="s" r="Q152" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" ht="24.75" customHeight="1">
@@ -6657,31 +6666,31 @@
       </c>
       <c r="B153" s="7"/>
       <c t="s" r="C153" s="8">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c t="s" r="H153" s="9">
-        <v>20</v>
+        <v>391</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c t="s" r="L153" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M153" s="10"/>
       <c t="s" r="N153" s="8">
-        <v>383</v>
+        <v>48</v>
       </c>
       <c r="O153" s="8"/>
       <c t="s" r="P153" s="11">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q153" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" ht="25.5" customHeight="1">
@@ -6690,28 +6699,28 @@
       </c>
       <c r="B154" s="7"/>
       <c t="s" r="C154" s="8">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c t="s" r="H154" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c t="s" r="L154" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M154" s="10"/>
       <c t="s" r="N154" s="8">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O154" s="8"/>
       <c t="s" r="P154" s="11">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c t="s" r="Q154" s="12">
         <v>16</v>
@@ -6723,66 +6732,99 @@
       </c>
       <c r="B155" s="7"/>
       <c t="s" r="C155" s="8">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c t="s" r="H155" s="9">
-        <v>397</v>
+        <v>16</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c t="s" r="L155" s="10">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="M155" s="10"/>
       <c t="s" r="N155" s="8">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="O155" s="8"/>
       <c t="s" r="P155" s="11">
+        <v>395</v>
+      </c>
+      <c t="s" r="Q155" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" ht="25.5" customHeight="1">
+      <c r="A156" s="7">
         <v>150</v>
       </c>
-      <c t="s" r="Q155" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" ht="25.5" customHeight="1">
-      <c r="P156" s="13">
-        <v>8815.1450000000004</v>
-      </c>
-      <c r="Q156" s="13"/>
-    </row>
-    <row r="157" ht="16.5" customHeight="1">
-      <c t="s" r="A157" s="14">
-        <v>398</v>
-      </c>
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c t="s" r="G157" s="15">
+      <c r="B156" s="7"/>
+      <c t="s" r="C156" s="8">
         <v>399</v>
       </c>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="16"/>
-      <c t="s" r="K157" s="17">
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c t="s" r="H156" s="9">
         <v>400</v>
       </c>
-      <c r="L157" s="17"/>
-      <c r="M157" s="17"/>
-      <c r="N157" s="17"/>
-      <c r="O157" s="17"/>
-      <c r="P157" s="17"/>
-      <c r="Q157" s="17"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c t="s" r="L156" s="10">
+        <v>104</v>
+      </c>
+      <c r="M156" s="10"/>
+      <c t="s" r="N156" s="8">
+        <v>361</v>
+      </c>
+      <c r="O156" s="8"/>
+      <c t="s" r="P156" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q156" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" ht="25.5" customHeight="1">
+      <c r="P157" s="13">
+        <v>8827.1450000000004</v>
+      </c>
+      <c r="Q157" s="13"/>
+    </row>
+    <row r="158" ht="16.5" customHeight="1">
+      <c t="s" r="A158" s="14">
+        <v>401</v>
+      </c>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c t="s" r="G158" s="15">
+        <v>402</v>
+      </c>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="16"/>
+      <c t="s" r="K158" s="17">
+        <v>403</v>
+      </c>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="757">
+  <mergeCells count="762">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7536,10 +7578,15 @@
     <mergeCell ref="H155:K155"/>
     <mergeCell ref="L155:M155"/>
     <mergeCell ref="N155:O155"/>
-    <mergeCell ref="P156:Q156"/>
-    <mergeCell ref="A157:F157"/>
-    <mergeCell ref="G157:I157"/>
-    <mergeCell ref="K157:Q157"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="P157:Q157"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="K158:Q158"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -1214,7 +1214,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 11:24 PM</t>
+    <t>Wednesday, 9 July, 2025 11:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ARMOWAKE 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -236,6 +245,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -488,6 +506,15 @@
     <t>48.00</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -542,9 +569,6 @@
     <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>10.0800</t>
   </si>
   <si>
@@ -725,6 +749,12 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
@@ -1061,12 +1091,12 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>150.9600</t>
+  </si>
+  <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>134.6400</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1133,7 +1163,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1211,10 +1244,19 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>Wednesday, 9 July, 2025 11:39 PM</t>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 9 July, 2025 11:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2251,7 +2293,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2268,7 +2310,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2284,7 +2326,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2301,7 +2343,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2317,7 +2359,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2334,7 +2376,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2350,7 +2392,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2367,7 +2409,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2383,7 +2425,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2400,7 +2442,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2416,7 +2458,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2433,7 +2475,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2449,7 +2491,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2459,14 +2501,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2475,14 +2517,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2492,14 +2534,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2508,14 +2550,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2525,14 +2567,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2541,14 +2583,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2558,14 +2600,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2574,14 +2616,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2591,14 +2633,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2614,7 +2656,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2624,11 +2666,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2640,14 +2682,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2657,14 +2699,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2673,14 +2715,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2690,14 +2732,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2706,31 +2748,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2739,14 +2781,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2756,14 +2798,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2779,24 +2821,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2805,14 +2847,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2822,11 +2864,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2838,14 +2880,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2855,14 +2897,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2871,14 +2913,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2888,14 +2930,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2904,14 +2946,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2928,7 +2970,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2944,7 +2986,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2961,7 +3003,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2977,7 +3019,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2987,14 +3029,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3003,14 +3045,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3020,14 +3062,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3043,7 +3085,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3053,14 +3095,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3069,14 +3111,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3086,11 +3128,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -3102,14 +3144,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3119,14 +3161,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3135,14 +3177,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3168,14 +3210,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3185,11 +3227,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3201,14 +3243,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3218,14 +3260,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3241,7 +3283,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3255,7 +3297,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3267,14 +3309,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3284,14 +3326,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3300,14 +3342,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3317,14 +3359,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3333,14 +3375,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3350,14 +3392,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3366,14 +3408,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3383,11 +3425,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3406,7 +3448,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3416,14 +3458,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3432,14 +3474,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3449,11 +3491,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3465,7 +3507,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3482,11 +3524,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3505,7 +3547,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3519,7 +3561,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3531,7 +3573,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3548,14 +3590,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3571,24 +3613,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3597,14 +3639,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3614,11 +3656,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3630,14 +3672,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3647,14 +3689,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3663,7 +3705,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3680,14 +3722,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3696,31 +3738,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3729,14 +3771,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3746,11 +3788,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3762,14 +3804,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3779,14 +3821,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3795,7 +3837,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3812,14 +3854,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3828,14 +3870,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3845,14 +3887,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3861,14 +3903,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3878,14 +3920,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3894,14 +3936,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3911,14 +3953,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3927,7 +3969,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3944,14 +3986,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3960,14 +4002,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3977,14 +4019,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3993,14 +4035,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4010,14 +4052,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -4026,14 +4068,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4043,14 +4085,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4059,14 +4101,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4076,14 +4118,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4092,14 +4134,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4109,14 +4151,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4125,14 +4167,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4142,14 +4184,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4158,7 +4200,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4175,11 +4217,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4191,14 +4233,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4208,11 +4250,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4224,14 +4266,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4241,14 +4283,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4257,14 +4299,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4274,11 +4316,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4290,14 +4332,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4307,14 +4349,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4323,14 +4365,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4340,14 +4382,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4356,14 +4398,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4373,11 +4415,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4389,14 +4431,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4406,14 +4448,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4422,14 +4464,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4439,14 +4481,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4455,14 +4497,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4472,14 +4514,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4495,7 +4537,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4505,14 +4547,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4521,14 +4563,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4538,14 +4580,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4561,7 +4603,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4571,11 +4613,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4587,14 +4629,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4604,14 +4646,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4620,14 +4662,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4637,11 +4679,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4653,14 +4695,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4670,14 +4712,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4686,14 +4728,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4703,14 +4745,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4719,14 +4761,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4736,11 +4778,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>23</v>
@@ -4752,31 +4794,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4785,14 +4827,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4802,14 +4844,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4818,14 +4860,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4835,14 +4877,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4851,14 +4893,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4868,14 +4910,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4884,14 +4926,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4901,11 +4943,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>95</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4924,24 +4966,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4957,7 +4999,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>28</v>
+        <v>271</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4967,14 +5009,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4983,14 +5025,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -5000,11 +5042,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -5016,14 +5058,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5033,11 +5075,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -5049,14 +5091,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5066,14 +5108,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5082,14 +5124,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5099,14 +5141,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5115,14 +5157,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5132,14 +5174,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5148,14 +5190,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5165,14 +5207,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5181,14 +5223,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5198,14 +5240,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5227,7 +5269,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5254,7 +5296,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5264,14 +5306,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5287,7 +5329,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5297,11 +5339,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>64</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5313,14 +5355,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5330,14 +5372,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5346,14 +5388,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>299</v>
+        <v>28</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5363,11 +5405,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>300</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>23</v>
@@ -5379,7 +5421,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5392,15 +5434,15 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5412,7 +5454,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5425,15 +5467,15 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>58</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5445,31 +5487,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5478,14 +5520,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5495,14 +5537,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5511,14 +5553,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5528,11 +5570,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>264</v>
+        <v>61</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>23</v>
@@ -5544,14 +5586,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>315</v>
+        <v>28</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5561,14 +5603,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5577,28 +5619,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5610,31 +5652,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5643,14 +5685,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5660,14 +5702,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>305</v>
+        <v>208</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5676,14 +5718,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5693,14 +5735,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5709,14 +5751,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5726,14 +5768,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>327</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>328</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5742,7 +5784,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5759,11 +5801,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>126</v>
+        <v>327</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>127</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5775,7 +5817,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5792,14 +5834,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5808,14 +5850,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5825,11 +5867,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5841,7 +5883,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5858,11 +5900,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>187</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5874,14 +5916,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5891,14 +5933,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5924,11 +5966,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>340</v>
+        <v>132</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>341</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5940,14 +5982,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5957,14 +5999,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5973,14 +6015,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5990,11 +6032,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>186</v>
+        <v>344</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -6013,7 +6055,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6027,7 +6069,7 @@
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>348</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6039,14 +6081,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>350</v>
+        <v>28</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6056,14 +6098,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>351</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6072,14 +6114,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6089,14 +6131,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6105,28 +6147,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>23</v>
@@ -6138,28 +6180,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6171,7 +6213,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6184,18 +6226,18 @@
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6204,31 +6246,31 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>364</v>
+        <v>64</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>92</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6237,31 +6279,31 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>129</v>
+        <v>363</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6270,31 +6312,31 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6303,20 +6345,20 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
@@ -6324,10 +6366,10 @@
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>372</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6336,31 +6378,31 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>374</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6369,7 +6411,7 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -6382,18 +6424,18 @@
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6409,21 +6451,21 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>377</v>
+        <v>135</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>378</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>16</v>
@@ -6435,28 +6477,28 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c t="s" r="L146" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>117</v>
+        <v>378</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>16</v>
@@ -6468,31 +6510,31 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c t="s" r="L147" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c t="s" r="Q147" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" ht="24.75" customHeight="1">
@@ -6501,31 +6543,31 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>385</v>
+        <v>28</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c t="s" r="L148" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c t="s" r="Q148" s="12">
-        <v>16</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" ht="25.5" customHeight="1">
@@ -6534,7 +6576,7 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -6547,18 +6589,18 @@
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c t="s" r="L149" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q149" s="12">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" ht="24.75" customHeight="1">
@@ -6567,28 +6609,28 @@
       </c>
       <c r="B150" s="7"/>
       <c t="s" r="C150" s="8">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c t="s" r="H150" s="9">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c t="s" r="L150" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c t="s" r="Q150" s="12">
         <v>16</v>
@@ -6600,28 +6642,28 @@
       </c>
       <c r="B151" s="7"/>
       <c t="s" r="C151" s="8">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c t="s" r="H151" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c t="s" r="L151" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M151" s="10"/>
       <c t="s" r="N151" s="8">
-        <v>275</v>
+        <v>123</v>
       </c>
       <c r="O151" s="8"/>
       <c t="s" r="P151" s="11">
-        <v>276</v>
+        <v>391</v>
       </c>
       <c t="s" r="Q151" s="12">
         <v>16</v>
@@ -6633,28 +6675,28 @@
       </c>
       <c r="B152" s="7"/>
       <c t="s" r="C152" s="8">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c t="s" r="H152" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c t="s" r="L152" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M152" s="10"/>
       <c t="s" r="N152" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O152" s="8"/>
       <c t="s" r="P152" s="11">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c t="s" r="Q152" s="12">
         <v>16</v>
@@ -6666,31 +6708,31 @@
       </c>
       <c r="B153" s="7"/>
       <c t="s" r="C153" s="8">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c t="s" r="H153" s="9">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c t="s" r="L153" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M153" s="10"/>
       <c t="s" r="N153" s="8">
-        <v>48</v>
+        <v>397</v>
       </c>
       <c r="O153" s="8"/>
       <c t="s" r="P153" s="11">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c t="s" r="Q153" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" ht="25.5" customHeight="1">
@@ -6699,31 +6741,31 @@
       </c>
       <c r="B154" s="7"/>
       <c t="s" r="C154" s="8">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c t="s" r="H154" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c t="s" r="L154" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M154" s="10"/>
       <c t="s" r="N154" s="8">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="O154" s="8"/>
       <c t="s" r="P154" s="11">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c t="s" r="Q154" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="155" ht="24.75" customHeight="1">
@@ -6732,28 +6774,28 @@
       </c>
       <c r="B155" s="7"/>
       <c t="s" r="C155" s="8">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c t="s" r="H155" s="9">
-        <v>16</v>
+        <v>402</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c t="s" r="L155" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M155" s="10"/>
       <c t="s" r="N155" s="8">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O155" s="8"/>
       <c t="s" r="P155" s="11">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c t="s" r="Q155" s="12">
         <v>16</v>
@@ -6765,66 +6807,264 @@
       </c>
       <c r="B156" s="7"/>
       <c t="s" r="C156" s="8">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c t="s" r="H156" s="9">
-        <v>400</v>
+        <v>47</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c t="s" r="L156" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M156" s="10"/>
       <c t="s" r="N156" s="8">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="O156" s="8"/>
       <c t="s" r="P156" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q156" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" ht="25.5" customHeight="1">
+      <c r="A157" s="7">
+        <v>151</v>
+      </c>
+      <c r="B157" s="7"/>
+      <c t="s" r="C157" s="8">
+        <v>404</v>
+      </c>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c t="s" r="H157" s="9">
+        <v>20</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c t="s" r="L157" s="10">
+        <v>110</v>
+      </c>
+      <c r="M157" s="10"/>
+      <c t="s" r="N157" s="8">
+        <v>405</v>
+      </c>
+      <c r="O157" s="8"/>
+      <c t="s" r="P157" s="11">
+        <v>406</v>
+      </c>
+      <c t="s" r="Q157" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" ht="24.75" customHeight="1">
+      <c r="A158" s="7">
+        <v>152</v>
+      </c>
+      <c r="B158" s="7"/>
+      <c t="s" r="C158" s="8">
+        <v>407</v>
+      </c>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c t="s" r="H158" s="9">
+        <v>402</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c t="s" r="L158" s="10">
+        <v>110</v>
+      </c>
+      <c r="M158" s="10"/>
+      <c t="s" r="N158" s="8">
+        <v>48</v>
+      </c>
+      <c r="O158" s="8"/>
+      <c t="s" r="P158" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q158" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" ht="25.5" customHeight="1">
+      <c r="A159" s="7">
+        <v>153</v>
+      </c>
+      <c r="B159" s="7"/>
+      <c t="s" r="C159" s="8">
+        <v>408</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c t="s" r="H159" s="9">
+        <v>20</v>
+      </c>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c t="s" r="L159" s="10">
+        <v>110</v>
+      </c>
+      <c r="M159" s="10"/>
+      <c t="s" r="N159" s="8">
+        <v>397</v>
+      </c>
+      <c r="O159" s="8"/>
+      <c t="s" r="P159" s="11">
+        <v>398</v>
+      </c>
+      <c t="s" r="Q159" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" ht="24.75" customHeight="1">
+      <c r="A160" s="7">
         <v>154</v>
       </c>
-      <c t="s" r="Q156" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" ht="25.5" customHeight="1">
-      <c r="P157" s="13">
-        <v>8827.1450000000004</v>
-      </c>
-      <c r="Q157" s="13"/>
-    </row>
-    <row r="158" ht="16.5" customHeight="1">
-      <c t="s" r="A158" s="14">
-        <v>401</v>
-      </c>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c t="s" r="G158" s="15">
-        <v>402</v>
-      </c>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="16"/>
-      <c t="s" r="K158" s="17">
-        <v>403</v>
-      </c>
-      <c r="L158" s="17"/>
-      <c r="M158" s="17"/>
-      <c r="N158" s="17"/>
-      <c r="O158" s="17"/>
-      <c r="P158" s="17"/>
-      <c r="Q158" s="17"/>
+      <c r="B160" s="7"/>
+      <c t="s" r="C160" s="8">
+        <v>409</v>
+      </c>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c t="s" r="H160" s="9">
+        <v>16</v>
+      </c>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c t="s" r="L160" s="10">
+        <v>110</v>
+      </c>
+      <c r="M160" s="10"/>
+      <c t="s" r="N160" s="8">
+        <v>405</v>
+      </c>
+      <c r="O160" s="8"/>
+      <c t="s" r="P160" s="11">
+        <v>406</v>
+      </c>
+      <c t="s" r="Q160" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" ht="25.5" customHeight="1">
+      <c r="A161" s="7">
+        <v>155</v>
+      </c>
+      <c r="B161" s="7"/>
+      <c t="s" r="C161" s="8">
+        <v>410</v>
+      </c>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c t="s" r="H161" s="9">
+        <v>411</v>
+      </c>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c t="s" r="L161" s="10">
+        <v>110</v>
+      </c>
+      <c r="M161" s="10"/>
+      <c t="s" r="N161" s="8">
+        <v>371</v>
+      </c>
+      <c r="O161" s="8"/>
+      <c t="s" r="P161" s="11">
+        <v>412</v>
+      </c>
+      <c t="s" r="Q161" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" ht="25.5" customHeight="1">
+      <c r="A162" s="7">
+        <v>156</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c t="s" r="C162" s="8">
+        <v>413</v>
+      </c>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c t="s" r="H162" s="9">
+        <v>414</v>
+      </c>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c t="s" r="L162" s="10">
+        <v>110</v>
+      </c>
+      <c r="M162" s="10"/>
+      <c t="s" r="N162" s="8">
+        <v>371</v>
+      </c>
+      <c r="O162" s="8"/>
+      <c t="s" r="P162" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q162" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" ht="24.75" customHeight="1">
+      <c r="P163" s="13">
+        <v>9268.4650000000001</v>
+      </c>
+      <c r="Q163" s="13"/>
+    </row>
+    <row r="164" ht="16.5" customHeight="1">
+      <c t="s" r="A164" s="14">
+        <v>415</v>
+      </c>
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c t="s" r="G164" s="15">
+        <v>416</v>
+      </c>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="16"/>
+      <c t="s" r="K164" s="17">
+        <v>417</v>
+      </c>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
+      <c r="N164" s="17"/>
+      <c r="O164" s="17"/>
+      <c r="P164" s="17"/>
+      <c r="Q164" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="762">
+  <mergeCells count="792">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7583,10 +7823,40 @@
     <mergeCell ref="H156:K156"/>
     <mergeCell ref="L156:M156"/>
     <mergeCell ref="N156:O156"/>
-    <mergeCell ref="P157:Q157"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="K158:Q158"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:G158"/>
+    <mergeCell ref="H158:K158"/>
+    <mergeCell ref="L158:M158"/>
+    <mergeCell ref="N158:O158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:G159"/>
+    <mergeCell ref="H159:K159"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="N159:O159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:G160"/>
+    <mergeCell ref="H160:K160"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="N160:O160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="H161:K161"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="N161:O161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:G162"/>
+    <mergeCell ref="H162:K162"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="P163:Q163"/>
+    <mergeCell ref="A164:F164"/>
+    <mergeCell ref="G164:I164"/>
+    <mergeCell ref="K164:Q164"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -590,6 +590,15 @@
     <t>45.5400</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>-5:0</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -1038,6 +1047,9 @@
   </si>
   <si>
     <t>28.0000</t>
+  </si>
+  <si>
+    <t>TIMOGEN 10MG/5ML SYRUP 120ML</t>
   </si>
   <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
@@ -3877,7 +3889,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3910,7 +3922,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3927,7 +3939,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3943,7 +3955,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3960,7 +3972,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3976,7 +3988,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3986,14 +3998,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -4042,7 +4054,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4052,14 +4064,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -4068,14 +4080,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4118,7 +4130,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -4141,7 +4153,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4158,7 +4170,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4174,7 +4186,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4184,14 +4196,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4200,14 +4212,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4240,7 +4252,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4273,7 +4285,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4290,7 +4302,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4323,7 +4335,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4339,7 +4351,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4349,11 +4361,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4365,7 +4377,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4382,7 +4394,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4471,7 +4483,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4481,14 +4493,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4497,14 +4509,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4514,14 +4526,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4537,7 +4549,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4547,14 +4559,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4563,14 +4575,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4580,11 +4592,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4596,14 +4608,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4613,14 +4625,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4636,7 +4648,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4646,14 +4658,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4662,14 +4674,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4679,14 +4691,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4712,14 +4724,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4735,7 +4747,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4745,14 +4757,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4761,7 +4773,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4778,11 +4790,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>23</v>
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4811,14 +4823,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4834,7 +4846,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4844,11 +4856,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4860,14 +4872,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4877,14 +4889,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4893,14 +4905,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4910,14 +4922,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4926,14 +4938,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4943,14 +4955,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4959,7 +4971,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4972,15 +4984,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4992,28 +5004,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -5025,14 +5037,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -5042,14 +5054,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -5058,14 +5070,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5075,11 +5087,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -5098,7 +5110,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5112,10 +5124,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5124,14 +5136,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5141,14 +5153,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5157,7 +5169,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5174,14 +5186,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5190,14 +5202,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5207,14 +5219,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5230,7 +5242,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5263,7 +5275,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5296,7 +5308,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5306,14 +5318,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5322,14 +5334,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5339,14 +5351,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5355,14 +5367,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5372,11 +5384,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>64</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5388,14 +5400,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5405,11 +5417,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>115</v>
+        <v>298</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>23</v>
@@ -5421,7 +5433,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5434,18 +5446,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>299</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5467,15 +5479,15 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5487,14 +5499,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5504,14 +5516,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5527,7 +5539,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5544,7 +5556,7 @@
         <v>307</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5560,7 +5572,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5570,14 +5582,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>310</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5593,7 +5605,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5603,14 +5615,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>312</v>
+        <v>61</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5632,7 +5644,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5692,24 +5704,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5718,14 +5730,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5735,14 +5747,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5751,14 +5763,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>325</v>
+        <v>23</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5768,11 +5780,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>139</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>23</v>
@@ -5784,14 +5796,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5801,14 +5813,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>328</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5824,7 +5836,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5841,7 +5853,7 @@
         <v>331</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5857,7 +5869,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5867,14 +5879,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5883,14 +5895,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5900,11 +5912,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5923,7 +5935,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5933,14 +5945,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>338</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5956,7 +5968,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5966,14 +5978,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5982,14 +5994,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5999,11 +6011,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>341</v>
+        <v>132</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -6022,7 +6034,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -6055,7 +6067,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6065,11 +6077,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>347</v>
+        <v>151</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6081,14 +6093,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6098,11 +6110,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>48</v>
+        <v>348</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6114,14 +6126,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6131,11 +6143,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>351</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6154,7 +6166,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6164,14 +6176,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>353</v>
+        <v>48</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>354</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6180,14 +6192,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6197,11 +6209,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>194</v>
+        <v>354</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6237,7 +6249,7 @@
         <v>358</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6253,7 +6265,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6263,14 +6275,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>361</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6279,14 +6291,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>363</v>
+        <v>16</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6296,14 +6308,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6312,31 +6324,31 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>367</v>
+        <v>64</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>23</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6345,31 +6357,31 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>160</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6378,14 +6390,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6395,14 +6407,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>249</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6418,7 +6430,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>28</v>
+        <v>374</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6428,14 +6440,14 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>375</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6451,7 +6463,7 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6461,14 +6473,14 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6484,7 +6496,7 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6501,7 +6513,7 @@
         <v>379</v>
       </c>
       <c t="s" r="Q146" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
@@ -6517,7 +6529,7 @@
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6527,14 +6539,14 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>381</v>
+        <v>288</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>382</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q147" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" ht="24.75" customHeight="1">
@@ -6543,14 +6555,14 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -6560,14 +6572,14 @@
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c t="s" r="Q148" s="12">
-        <v>385</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" ht="25.5" customHeight="1">
@@ -6576,7 +6588,7 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -6593,14 +6605,14 @@
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c t="s" r="Q149" s="12">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" ht="24.75" customHeight="1">
@@ -6616,7 +6628,7 @@
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c t="s" r="H150" s="9">
-        <v>388</v>
+        <v>28</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
@@ -6626,14 +6638,14 @@
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
+        <v>388</v>
+      </c>
+      <c t="s" r="Q150" s="12">
         <v>389</v>
-      </c>
-      <c t="s" r="Q150" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="151" ht="25.5" customHeight="1">
@@ -6659,14 +6671,14 @@
       </c>
       <c r="M151" s="10"/>
       <c t="s" r="N151" s="8">
-        <v>123</v>
+        <v>378</v>
       </c>
       <c r="O151" s="8"/>
       <c t="s" r="P151" s="11">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q151" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" ht="25.5" customHeight="1">
@@ -6675,14 +6687,14 @@
       </c>
       <c r="B152" s="7"/>
       <c t="s" r="C152" s="8">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c t="s" r="H152" s="9">
-        <v>98</v>
+        <v>392</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
@@ -6692,11 +6704,11 @@
       </c>
       <c r="M152" s="10"/>
       <c t="s" r="N152" s="8">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="O152" s="8"/>
       <c t="s" r="P152" s="11">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c t="s" r="Q152" s="12">
         <v>16</v>
@@ -6708,14 +6720,14 @@
       </c>
       <c r="B153" s="7"/>
       <c t="s" r="C153" s="8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c t="s" r="H153" s="9">
-        <v>396</v>
+        <v>28</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
@@ -6725,11 +6737,11 @@
       </c>
       <c r="M153" s="10"/>
       <c t="s" r="N153" s="8">
-        <v>397</v>
+        <v>123</v>
       </c>
       <c r="O153" s="8"/>
       <c t="s" r="P153" s="11">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c t="s" r="Q153" s="12">
         <v>16</v>
@@ -6741,14 +6753,14 @@
       </c>
       <c r="B154" s="7"/>
       <c t="s" r="C154" s="8">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c t="s" r="H154" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
@@ -6762,10 +6774,10 @@
       </c>
       <c r="O154" s="8"/>
       <c t="s" r="P154" s="11">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c t="s" r="Q154" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" ht="24.75" customHeight="1">
@@ -6774,14 +6786,14 @@
       </c>
       <c r="B155" s="7"/>
       <c t="s" r="C155" s="8">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c t="s" r="H155" s="9">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
@@ -6791,11 +6803,11 @@
       </c>
       <c r="M155" s="10"/>
       <c t="s" r="N155" s="8">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O155" s="8"/>
       <c t="s" r="P155" s="11">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c t="s" r="Q155" s="12">
         <v>16</v>
@@ -6814,7 +6826,7 @@
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c t="s" r="H156" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
@@ -6824,14 +6836,14 @@
       </c>
       <c r="M156" s="10"/>
       <c t="s" r="N156" s="8">
-        <v>285</v>
+        <v>401</v>
       </c>
       <c r="O156" s="8"/>
       <c t="s" r="P156" s="11">
-        <v>286</v>
+        <v>404</v>
       </c>
       <c t="s" r="Q156" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" ht="25.5" customHeight="1">
@@ -6840,14 +6852,14 @@
       </c>
       <c r="B157" s="7"/>
       <c t="s" r="C157" s="8">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c t="s" r="H157" s="9">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
@@ -6857,11 +6869,11 @@
       </c>
       <c r="M157" s="10"/>
       <c t="s" r="N157" s="8">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O157" s="8"/>
       <c t="s" r="P157" s="11">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c t="s" r="Q157" s="12">
         <v>16</v>
@@ -6880,7 +6892,7 @@
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c t="s" r="H158" s="9">
-        <v>402</v>
+        <v>47</v>
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
@@ -6890,14 +6902,14 @@
       </c>
       <c r="M158" s="10"/>
       <c t="s" r="N158" s="8">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="O158" s="8"/>
       <c t="s" r="P158" s="11">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q158" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" ht="25.5" customHeight="1">
@@ -6923,11 +6935,11 @@
       </c>
       <c r="M159" s="10"/>
       <c t="s" r="N159" s="8">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="O159" s="8"/>
       <c t="s" r="P159" s="11">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c t="s" r="Q159" s="12">
         <v>16</v>
@@ -6939,14 +6951,14 @@
       </c>
       <c r="B160" s="7"/>
       <c t="s" r="C160" s="8">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c t="s" r="H160" s="9">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
@@ -6956,14 +6968,14 @@
       </c>
       <c r="M160" s="10"/>
       <c t="s" r="N160" s="8">
-        <v>405</v>
+        <v>48</v>
       </c>
       <c r="O160" s="8"/>
       <c t="s" r="P160" s="11">
-        <v>406</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q160" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" ht="25.5" customHeight="1">
@@ -6972,14 +6984,14 @@
       </c>
       <c r="B161" s="7"/>
       <c t="s" r="C161" s="8">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c t="s" r="H161" s="9">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
@@ -6989,14 +7001,14 @@
       </c>
       <c r="M161" s="10"/>
       <c t="s" r="N161" s="8">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="O161" s="8"/>
       <c t="s" r="P161" s="11">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c t="s" r="Q161" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" ht="25.5" customHeight="1">
@@ -7012,7 +7024,7 @@
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c t="s" r="H162" s="9">
-        <v>414</v>
+        <v>16</v>
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
@@ -7022,49 +7034,115 @@
       </c>
       <c r="M162" s="10"/>
       <c t="s" r="N162" s="8">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="O162" s="8"/>
       <c t="s" r="P162" s="11">
+        <v>410</v>
+      </c>
+      <c t="s" r="Q162" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" ht="24.75" customHeight="1">
+      <c r="A163" s="7">
+        <v>157</v>
+      </c>
+      <c r="B163" s="7"/>
+      <c t="s" r="C163" s="8">
+        <v>414</v>
+      </c>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c t="s" r="H163" s="9">
+        <v>415</v>
+      </c>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c t="s" r="L163" s="10">
+        <v>110</v>
+      </c>
+      <c r="M163" s="10"/>
+      <c t="s" r="N163" s="8">
+        <v>375</v>
+      </c>
+      <c r="O163" s="8"/>
+      <c t="s" r="P163" s="11">
+        <v>416</v>
+      </c>
+      <c t="s" r="Q163" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" ht="25.5" customHeight="1">
+      <c r="A164" s="7">
+        <v>158</v>
+      </c>
+      <c r="B164" s="7"/>
+      <c t="s" r="C164" s="8">
+        <v>417</v>
+      </c>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c t="s" r="H164" s="9">
+        <v>418</v>
+      </c>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c t="s" r="L164" s="10">
+        <v>110</v>
+      </c>
+      <c r="M164" s="10"/>
+      <c t="s" r="N164" s="8">
+        <v>375</v>
+      </c>
+      <c r="O164" s="8"/>
+      <c t="s" r="P164" s="11">
         <v>160</v>
       </c>
-      <c t="s" r="Q162" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" ht="24.75" customHeight="1">
-      <c r="P163" s="13">
-        <v>9268.4650000000001</v>
-      </c>
-      <c r="Q163" s="13"/>
-    </row>
-    <row r="164" ht="16.5" customHeight="1">
-      <c t="s" r="A164" s="14">
-        <v>415</v>
-      </c>
-      <c r="B164" s="14"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c t="s" r="G164" s="15">
-        <v>416</v>
-      </c>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="16"/>
-      <c t="s" r="K164" s="17">
-        <v>417</v>
-      </c>
-      <c r="L164" s="17"/>
-      <c r="M164" s="17"/>
-      <c r="N164" s="17"/>
-      <c r="O164" s="17"/>
-      <c r="P164" s="17"/>
-      <c r="Q164" s="17"/>
+      <c t="s" r="Q164" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" ht="24.75" customHeight="1">
+      <c r="P165" s="13">
+        <v>9483.4650000000001</v>
+      </c>
+      <c r="Q165" s="13"/>
+    </row>
+    <row r="166" ht="16.5" customHeight="1">
+      <c t="s" r="A166" s="14">
+        <v>419</v>
+      </c>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c t="s" r="G166" s="15">
+        <v>420</v>
+      </c>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="16"/>
+      <c t="s" r="K166" s="17">
+        <v>421</v>
+      </c>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
+      <c r="N166" s="17"/>
+      <c r="O166" s="17"/>
+      <c r="P166" s="17"/>
+      <c r="Q166" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="792">
+  <mergeCells count="802">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7853,10 +7931,20 @@
     <mergeCell ref="H162:K162"/>
     <mergeCell ref="L162:M162"/>
     <mergeCell ref="N162:O162"/>
-    <mergeCell ref="P163:Q163"/>
-    <mergeCell ref="A164:F164"/>
-    <mergeCell ref="G164:I164"/>
-    <mergeCell ref="K164:Q164"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="H163:K163"/>
+    <mergeCell ref="L163:M163"/>
+    <mergeCell ref="N163:O163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="H164:K164"/>
+    <mergeCell ref="L164:M164"/>
+    <mergeCell ref="N164:O164"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="A166:F166"/>
+    <mergeCell ref="G166:I166"/>
+    <mergeCell ref="K166:Q166"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -591,12 +591,6 @@
   </si>
   <si>
     <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
-  </si>
-  <si>
-    <t>-5:0</t>
-  </si>
-  <si>
-    <t>192.0000</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -3889,7 +3883,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3903,10 +3897,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3915,7 +3909,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3932,11 +3926,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3948,7 +3942,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3965,11 +3959,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3981,7 +3975,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3998,11 +3992,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -4014,7 +4008,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -4047,7 +4041,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -4064,11 +4058,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -4080,14 +4074,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4097,11 +4091,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -4113,7 +4107,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4134,7 +4128,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -4146,7 +4140,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4163,11 +4157,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -4179,7 +4173,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4196,11 +4190,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4212,7 +4206,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4245,7 +4239,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4262,11 +4256,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4278,7 +4272,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4295,11 +4289,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4311,7 +4305,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4328,11 +4322,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4344,7 +4338,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4361,11 +4355,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4377,7 +4371,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4398,7 +4392,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4410,7 +4404,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4427,11 +4421,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4443,7 +4437,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4460,11 +4454,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4476,7 +4470,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4493,11 +4487,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4509,7 +4503,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4542,7 +4536,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4559,11 +4553,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4575,14 +4569,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4596,7 +4590,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4608,7 +4602,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4629,7 +4623,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4641,7 +4635,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4658,11 +4652,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4674,7 +4668,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4695,7 +4689,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>39</v>
@@ -4707,7 +4701,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4740,7 +4734,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4757,11 +4751,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4773,7 +4767,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4806,7 +4800,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4827,7 +4821,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4839,7 +4833,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4856,11 +4850,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4872,7 +4866,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4905,7 +4899,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4938,7 +4932,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4971,7 +4965,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -5004,7 +4998,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -5025,7 +5019,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -5037,14 +5031,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -5070,7 +5064,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -5087,11 +5081,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -5103,7 +5097,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -5120,11 +5114,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -5136,7 +5130,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5153,7 +5147,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -5169,7 +5163,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5186,11 +5180,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5202,7 +5196,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5219,7 +5213,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -5235,7 +5229,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5252,11 +5246,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5268,7 +5262,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5285,11 +5279,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5301,7 +5295,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5318,11 +5312,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5334,7 +5328,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5355,7 +5349,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>39</v>
@@ -5367,7 +5361,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5388,7 +5382,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5400,7 +5394,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5417,7 +5411,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5433,7 +5427,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5466,7 +5460,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5483,11 +5477,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5499,7 +5493,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5520,7 +5514,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5532,7 +5526,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5549,11 +5543,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>23</v>
@@ -5565,7 +5559,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5582,11 +5576,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5598,14 +5592,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5619,7 +5613,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>23</v>
@@ -5631,7 +5625,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5648,11 +5642,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5664,7 +5658,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5681,11 +5675,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5697,7 +5691,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5714,11 +5708,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5730,7 +5724,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5747,11 +5741,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>39</v>
@@ -5763,7 +5757,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5780,11 +5774,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>23</v>
@@ -5796,14 +5790,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5829,7 +5823,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5846,11 +5840,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5862,7 +5856,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5879,11 +5873,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>47</v>
@@ -5895,7 +5889,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5912,11 +5906,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5928,7 +5922,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5945,11 +5939,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5961,7 +5955,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5982,10 +5976,10 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5994,7 +5988,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -6027,7 +6021,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -6044,11 +6038,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -6060,7 +6054,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -6093,7 +6087,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -6110,11 +6104,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6126,7 +6120,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6143,11 +6137,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6159,7 +6153,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6192,7 +6186,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6209,11 +6203,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6225,7 +6219,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6242,11 +6236,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>23</v>
@@ -6258,7 +6252,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6275,11 +6269,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6291,7 +6285,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6308,11 +6302,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6324,7 +6318,7 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6345,10 +6339,10 @@
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6357,14 +6351,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6374,11 +6368,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>47</v>
@@ -6390,7 +6384,7 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6407,11 +6401,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>23</v>
@@ -6423,14 +6417,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6440,7 +6434,7 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
@@ -6456,7 +6450,7 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -6473,11 +6467,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>98</v>
@@ -6489,7 +6483,7 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
@@ -6506,11 +6500,11 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>98</v>
@@ -6522,7 +6516,7 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -6539,11 +6533,11 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>16</v>
@@ -6555,7 +6549,7 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -6572,11 +6566,11 @@
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c t="s" r="Q148" s="12">
         <v>16</v>
@@ -6588,7 +6582,7 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -6605,11 +6599,11 @@
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c t="s" r="Q149" s="12">
         <v>47</v>
@@ -6621,7 +6615,7 @@
       </c>
       <c r="B150" s="7"/>
       <c t="s" r="C150" s="8">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -6638,14 +6632,14 @@
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c t="s" r="Q150" s="12">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="151" ht="25.5" customHeight="1">
@@ -6654,7 +6648,7 @@
       </c>
       <c r="B151" s="7"/>
       <c t="s" r="C151" s="8">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -6671,11 +6665,11 @@
       </c>
       <c r="M151" s="10"/>
       <c t="s" r="N151" s="8">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O151" s="8"/>
       <c t="s" r="P151" s="11">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q151" s="12">
         <v>98</v>
@@ -6687,14 +6681,14 @@
       </c>
       <c r="B152" s="7"/>
       <c t="s" r="C152" s="8">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c t="s" r="H152" s="9">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
@@ -6704,11 +6698,11 @@
       </c>
       <c r="M152" s="10"/>
       <c t="s" r="N152" s="8">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O152" s="8"/>
       <c t="s" r="P152" s="11">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c t="s" r="Q152" s="12">
         <v>16</v>
@@ -6720,7 +6714,7 @@
       </c>
       <c r="B153" s="7"/>
       <c t="s" r="C153" s="8">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
@@ -6741,7 +6735,7 @@
       </c>
       <c r="O153" s="8"/>
       <c t="s" r="P153" s="11">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c t="s" r="Q153" s="12">
         <v>16</v>
@@ -6753,7 +6747,7 @@
       </c>
       <c r="B154" s="7"/>
       <c t="s" r="C154" s="8">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
@@ -6770,11 +6764,11 @@
       </c>
       <c r="M154" s="10"/>
       <c t="s" r="N154" s="8">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O154" s="8"/>
       <c t="s" r="P154" s="11">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c t="s" r="Q154" s="12">
         <v>16</v>
@@ -6786,14 +6780,14 @@
       </c>
       <c r="B155" s="7"/>
       <c t="s" r="C155" s="8">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c t="s" r="H155" s="9">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
@@ -6803,11 +6797,11 @@
       </c>
       <c r="M155" s="10"/>
       <c t="s" r="N155" s="8">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O155" s="8"/>
       <c t="s" r="P155" s="11">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c t="s" r="Q155" s="12">
         <v>16</v>
@@ -6819,7 +6813,7 @@
       </c>
       <c r="B156" s="7"/>
       <c t="s" r="C156" s="8">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
@@ -6836,11 +6830,11 @@
       </c>
       <c r="M156" s="10"/>
       <c t="s" r="N156" s="8">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O156" s="8"/>
       <c t="s" r="P156" s="11">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c t="s" r="Q156" s="12">
         <v>109</v>
@@ -6852,14 +6846,14 @@
       </c>
       <c r="B157" s="7"/>
       <c t="s" r="C157" s="8">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c t="s" r="H157" s="9">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
@@ -6869,11 +6863,11 @@
       </c>
       <c r="M157" s="10"/>
       <c t="s" r="N157" s="8">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O157" s="8"/>
       <c t="s" r="P157" s="11">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c t="s" r="Q157" s="12">
         <v>16</v>
@@ -6885,7 +6879,7 @@
       </c>
       <c r="B158" s="7"/>
       <c t="s" r="C158" s="8">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
@@ -6902,11 +6896,11 @@
       </c>
       <c r="M158" s="10"/>
       <c t="s" r="N158" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O158" s="8"/>
       <c t="s" r="P158" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q158" s="12">
         <v>16</v>
@@ -6918,7 +6912,7 @@
       </c>
       <c r="B159" s="7"/>
       <c t="s" r="C159" s="8">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -6935,11 +6929,11 @@
       </c>
       <c r="M159" s="10"/>
       <c t="s" r="N159" s="8">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O159" s="8"/>
       <c t="s" r="P159" s="11">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c t="s" r="Q159" s="12">
         <v>16</v>
@@ -6951,14 +6945,14 @@
       </c>
       <c r="B160" s="7"/>
       <c t="s" r="C160" s="8">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c t="s" r="H160" s="9">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
@@ -6984,7 +6978,7 @@
       </c>
       <c r="B161" s="7"/>
       <c t="s" r="C161" s="8">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
@@ -7001,11 +6995,11 @@
       </c>
       <c r="M161" s="10"/>
       <c t="s" r="N161" s="8">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O161" s="8"/>
       <c t="s" r="P161" s="11">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c t="s" r="Q161" s="12">
         <v>16</v>
@@ -7017,7 +7011,7 @@
       </c>
       <c r="B162" s="7"/>
       <c t="s" r="C162" s="8">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
@@ -7034,11 +7028,11 @@
       </c>
       <c r="M162" s="10"/>
       <c t="s" r="N162" s="8">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O162" s="8"/>
       <c t="s" r="P162" s="11">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c t="s" r="Q162" s="12">
         <v>16</v>
@@ -7050,14 +7044,14 @@
       </c>
       <c r="B163" s="7"/>
       <c t="s" r="C163" s="8">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
       <c t="s" r="H163" s="9">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
@@ -7067,11 +7061,11 @@
       </c>
       <c r="M163" s="10"/>
       <c t="s" r="N163" s="8">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O163" s="8"/>
       <c t="s" r="P163" s="11">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c t="s" r="Q163" s="12">
         <v>12</v>
@@ -7083,14 +7077,14 @@
       </c>
       <c r="B164" s="7"/>
       <c t="s" r="C164" s="8">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c t="s" r="H164" s="9">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
@@ -7100,7 +7094,7 @@
       </c>
       <c r="M164" s="10"/>
       <c t="s" r="N164" s="8">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O164" s="8"/>
       <c t="s" r="P164" s="11">
@@ -7112,13 +7106,13 @@
     </row>
     <row r="165" ht="24.75" customHeight="1">
       <c r="P165" s="13">
-        <v>9483.4650000000001</v>
+        <v>9323.4650000000001</v>
       </c>
       <c r="Q165" s="13"/>
     </row>
     <row r="166" ht="16.5" customHeight="1">
       <c t="s" r="A166" s="14">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -7126,13 +7120,13 @@
       <c r="E166" s="14"/>
       <c r="F166" s="14"/>
       <c t="s" r="G166" s="15">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H166" s="15"/>
       <c r="I166" s="15"/>
       <c r="J166" s="16"/>
       <c t="s" r="K166" s="17">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L166" s="17"/>
       <c r="M166" s="17"/>

--- a/DaySale_2025-07-09_00-00.xlsx
+++ b/DaySale_2025-07-09_00-00.xlsx
@@ -407,222 +407,228 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>5:1</t>
+  </si>
+  <si>
     <t>50.00</t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CORTILON 0.1 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DENTINOX 2.65% INFANT COLIC DROPS 100 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FATROXIM 550 MG 30TAB</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>475.2000</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>10.0800</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>295.0000</t>
+  </si>
+  <si>
+    <t>FUNGICARE SOAP 80 GM</t>
+  </si>
+  <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CORTILON 0.1 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DENTINOX 2.65% INFANT COLIC DROPS 100 ML</t>
-  </si>
-  <si>
-    <t>103.00</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>DOLPHIN 50MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 500MG I.M. VIAL</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/40/12.5MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FATROXIM 550 MG 30TAB</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>475.2000</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>10.0800</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>295.0000</t>
-  </si>
-  <si>
-    <t>FUNGICARE SOAP 80 GM</t>
-  </si>
-  <si>
     <t>GANTOLIEF 50MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -680,6 +686,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -1061,6 +1076,9 @@
     <t>52.00</t>
   </si>
   <si>
+    <t>TORSERETIC 5MG 30 TABS.</t>
+  </si>
+  <si>
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -1121,9 +1139,6 @@
     <t>150.00</t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -1232,12 +1247,6 @@
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1262,7 +1271,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Wednesday, 9 July, 2025 11:40 PM</t>
+    <t>Wednesday, 9 July, 2025 11:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3058,7 +3067,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3068,14 +3077,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3101,11 +3110,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -3117,7 +3126,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3138,7 +3147,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -3150,7 +3159,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3167,11 +3176,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3216,7 +3225,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3233,11 +3242,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3282,7 +3291,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3299,11 +3308,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3315,7 +3324,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3332,11 +3341,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3348,7 +3357,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3365,7 +3374,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3381,7 +3390,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3398,11 +3407,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -3414,7 +3423,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3447,14 +3456,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3464,7 +3473,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3513,7 +3522,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3530,7 +3539,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3546,7 +3555,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3563,11 +3572,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3579,7 +3588,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3596,11 +3605,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>98</v>
@@ -3612,7 +3621,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3645,7 +3654,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3662,11 +3671,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3678,7 +3687,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3695,7 +3704,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3711,7 +3720,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3728,11 +3737,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3744,7 +3753,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3761,11 +3770,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>106</v>
@@ -3777,14 +3786,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3798,7 +3807,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3810,7 +3819,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3827,11 +3836,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3843,7 +3852,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3860,11 +3869,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>23</v>
@@ -3876,7 +3885,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3909,7 +3918,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3926,11 +3935,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3942,7 +3951,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3959,11 +3968,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3975,7 +3984,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3992,11 +4001,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -4008,7 +4017,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -4025,11 +4034,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -4041,7 +4050,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -4058,11 +4067,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -4074,14 +4083,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4091,11 +4100,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -4107,7 +4116,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4124,11 +4133,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -4140,7 +4149,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4157,11 +4166,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -4173,7 +4182,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4190,11 +4199,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4206,7 +4215,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4239,7 +4248,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4256,11 +4265,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4272,28 +4281,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4305,14 +4314,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4322,14 +4331,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4338,7 +4347,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4355,14 +4364,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4371,14 +4380,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4388,11 +4397,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4404,7 +4413,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4421,11 +4430,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4437,7 +4446,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4454,11 +4463,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4470,7 +4479,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4487,11 +4496,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4520,14 +4529,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4536,14 +4545,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4553,14 +4562,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4569,14 +4578,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4586,14 +4595,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4619,11 +4628,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4652,14 +4661,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4685,14 +4694,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4701,14 +4710,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4718,14 +4727,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4751,14 +4760,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4800,7 +4809,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4817,11 +4826,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4850,14 +4859,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4883,11 +4892,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4916,14 +4925,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4932,14 +4941,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4949,14 +4958,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4982,14 +4991,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4998,7 +5007,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -5011,15 +5020,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -5031,28 +5040,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -5064,14 +5073,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5081,14 +5090,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5097,14 +5106,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5114,11 +5123,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -5130,14 +5139,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5147,14 +5156,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5163,14 +5172,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5180,14 +5189,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5196,7 +5205,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5213,14 +5222,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5229,14 +5238,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5246,14 +5255,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5279,11 +5288,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5312,11 +5321,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5328,14 +5337,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5345,14 +5354,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>25</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5361,14 +5370,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5378,14 +5387,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5394,14 +5403,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5411,11 +5420,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>23</v>
@@ -5427,14 +5436,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5444,11 +5453,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>23</v>
@@ -5460,7 +5469,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5473,18 +5482,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>299</v>
+        <v>115</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>300</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5493,7 +5502,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5506,15 +5515,15 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5526,14 +5535,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5543,14 +5552,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5559,14 +5568,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5576,14 +5585,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5592,14 +5601,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5609,14 +5618,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5625,14 +5634,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5642,14 +5651,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>313</v>
+        <v>61</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5658,7 +5667,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5671,15 +5680,15 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5691,7 +5700,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5708,11 +5717,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5724,31 +5733,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5757,14 +5766,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5774,14 +5783,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5790,14 +5799,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5807,11 +5816,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>23</v>
@@ -5823,14 +5832,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5840,14 +5849,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>329</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5856,14 +5865,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5873,14 +5882,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5889,14 +5898,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5906,14 +5915,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5922,14 +5931,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5939,11 +5948,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5955,14 +5964,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5972,14 +5981,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>175</v>
+        <v>340</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>339</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5988,14 +5997,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -6005,14 +6014,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -6021,14 +6030,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -6038,11 +6047,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>343</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -6054,14 +6063,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6071,11 +6080,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6087,7 +6096,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -6104,11 +6113,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6120,14 +6129,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6137,11 +6146,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>196</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6153,7 +6162,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6170,11 +6179,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>48</v>
+        <v>354</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6186,14 +6195,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6203,14 +6212,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>353</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6219,14 +6228,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6236,14 +6245,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>355</v>
+        <v>48</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>356</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6259,7 +6268,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6269,11 +6278,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>195</v>
+        <v>358</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6285,7 +6294,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6302,14 +6311,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6318,14 +6327,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6335,14 +6344,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>362</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>363</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6358,7 +6367,7 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6368,14 +6377,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6384,31 +6393,31 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>369</v>
+        <v>64</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>23</v>
+        <v>369</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6417,31 +6426,31 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>160</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6457,7 +6466,7 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6467,14 +6476,14 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6483,14 +6492,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6500,14 +6509,14 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q146" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
@@ -6516,14 +6525,14 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6533,14 +6542,14 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q147" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" ht="24.75" customHeight="1">
@@ -6549,14 +6558,14 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -6566,14 +6575,14 @@
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c t="s" r="Q148" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" ht="25.5" customHeight="1">
@@ -6582,14 +6591,14 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
@@ -6599,14 +6608,14 @@
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>383</v>
+        <v>291</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>384</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q149" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" ht="24.75" customHeight="1">
@@ -6615,14 +6624,14 @@
       </c>
       <c r="B150" s="7"/>
       <c t="s" r="C150" s="8">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c t="s" r="H150" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
@@ -6632,14 +6641,14 @@
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
         <v>386</v>
       </c>
       <c t="s" r="Q150" s="12">
-        <v>387</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" ht="25.5" customHeight="1">
@@ -6648,7 +6657,7 @@
       </c>
       <c r="B151" s="7"/>
       <c t="s" r="C151" s="8">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -6665,14 +6674,14 @@
       </c>
       <c r="M151" s="10"/>
       <c t="s" r="N151" s="8">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="O151" s="8"/>
       <c t="s" r="P151" s="11">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c t="s" r="Q151" s="12">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" ht="25.5" customHeight="1">
@@ -6681,14 +6690,14 @@
       </c>
       <c r="B152" s="7"/>
       <c t="s" r="C152" s="8">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c t="s" r="H152" s="9">
-        <v>390</v>
+        <v>28</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
@@ -6698,14 +6707,14 @@
       </c>
       <c r="M152" s="10"/>
       <c t="s" r="N152" s="8">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O152" s="8"/>
       <c t="s" r="P152" s="11">
         <v>391</v>
       </c>
       <c t="s" r="Q152" s="12">
-        <v>16</v>
+        <v>392</v>
       </c>
     </row>
     <row r="153" ht="24.75" customHeight="1">
@@ -6714,7 +6723,7 @@
       </c>
       <c r="B153" s="7"/>
       <c t="s" r="C153" s="8">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
@@ -6731,14 +6740,14 @@
       </c>
       <c r="M153" s="10"/>
       <c t="s" r="N153" s="8">
-        <v>123</v>
+        <v>381</v>
       </c>
       <c r="O153" s="8"/>
       <c t="s" r="P153"